--- a/01_project-steps-delivering-an-ml-ai-strategy.xlsx
+++ b/01_project-steps-delivering-an-ml-ai-strategy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osama\Desktop\car seatbelt proj\Delivering-an-ML-AI-Strategy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveSysncOsa\OneDrive - Taibah University\DropBox\1440-1441 Second Semester\Udacity Reviewer\My own projects\ML Project\Github Repo\Delivering-an-ML-AI-Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841D8F31-CA6E-4A5D-B8E4-8B20C9E03C09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECTIONS" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="260">
   <si>
     <t>Step 0: Choose Your Business Context</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">         in those original cells and re-creating them in the spreadsheet you have been working in.</t>
-  </si>
-  <si>
-    <t>(Type Your Use Case 1 Short Name Here)</t>
   </si>
   <si>
     <t>Option 1 - A business of your choice</t>
@@ -1305,12 +1302,42 @@
   <si>
     <t>Step 7 DIRECTIONS: Please complete step 7 in the slides doc provided to you in the Udacity classroom.</t>
   </si>
+  <si>
+    <t>This option</t>
+  </si>
+  <si>
+    <t>(Quality Control with Computer Vision )</t>
+  </si>
+  <si>
+    <t>collecting random samples</t>
+  </si>
+  <si>
+    <t>more increase in random samples</t>
+  </si>
+  <si>
+    <t>stop machine / line</t>
+  </si>
+  <si>
+    <t>The entire dataset will be explored instead of random sample</t>
+  </si>
+  <si>
+    <t>The devices will be checked using CV to check if it is defective or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if number of defective devices &gt; threshold </t>
+  </si>
+  <si>
+    <t>stop machine /line. The accuracy if very hight the machine/line will be stopped only if there are defectives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if number of defectives in the random sample  &gt; threshold </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1442,6 +1469,33 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1718,7 +1772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1912,6 +1966,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3007,7 +3071,7 @@
     </row>
     <row r="10" spans="1:2" ht="27" customHeight="1">
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18">
@@ -3040,27 +3104,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -3073,9 +3137,9 @@
       <c r="E7" s="80"/>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="28">
         <f>'Step 1A - UC 3'!B14</f>
@@ -3094,82 +3158,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15">
       <c r="B9" s="35"/>
       <c r="C9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="E9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:6" ht="15">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15">
       <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>57</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15">
       <c r="C14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="C15" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="33"/>
+    </row>
+    <row r="17" spans="2:3" ht="15">
+      <c r="B17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="32" t="s">
+    </row>
+    <row r="18" spans="2:3" ht="15">
+      <c r="C18" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="C18" s="32" t="s">
+    <row r="19" spans="2:3" ht="15">
+      <c r="C19" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="32" t="s">
+    <row r="20" spans="2:3" ht="15">
+      <c r="C20" s="32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="32" t="s">
+    <row r="21" spans="2:3" ht="15">
+      <c r="C21" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="C21" s="32" t="s">
+    <row r="22" spans="2:3" ht="15">
+      <c r="C22" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="C22" s="32" t="s">
+    <row r="23" spans="2:3" ht="15">
+      <c r="C23" s="32" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="C23" s="32" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3201,27 +3265,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -3234,9 +3298,9 @@
       <c r="E7" s="80"/>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="28">
         <f>'Step 1A - UC 4'!B14</f>
@@ -3255,82 +3319,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15">
       <c r="B9" s="35"/>
       <c r="C9" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:6" ht="15">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15">
       <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>57</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15">
       <c r="C14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="C15" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="33"/>
+    </row>
+    <row r="17" spans="2:3" ht="15">
+      <c r="B17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="32" t="s">
+    </row>
+    <row r="18" spans="2:3" ht="15">
+      <c r="C18" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="C18" s="32" t="s">
+    <row r="19" spans="2:3" ht="15">
+      <c r="C19" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="32" t="s">
+    <row r="20" spans="2:3" ht="15">
+      <c r="C20" s="32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="32" t="s">
+    <row r="21" spans="2:3" ht="15">
+      <c r="C21" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="C21" s="32" t="s">
+    <row r="22" spans="2:3" ht="15">
+      <c r="C22" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="C22" s="32" t="s">
+    <row r="23" spans="2:3" ht="15">
+      <c r="C23" s="32" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="C23" s="32" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3362,27 +3426,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -3395,9 +3459,9 @@
       <c r="E7" s="80"/>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="28">
         <f>'Step 1A - UC 5'!B14</f>
@@ -3416,82 +3480,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15">
       <c r="B9" s="35"/>
       <c r="C9" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:6" ht="15">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15">
       <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>57</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15">
       <c r="C14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="C15" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="33"/>
+    </row>
+    <row r="17" spans="2:3" ht="15">
+      <c r="B17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="32" t="s">
+    </row>
+    <row r="18" spans="2:3" ht="15">
+      <c r="C18" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="C18" s="32" t="s">
+    <row r="19" spans="2:3" ht="15">
+      <c r="C19" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="32" t="s">
+    <row r="20" spans="2:3" ht="15">
+      <c r="C20" s="32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="32" t="s">
+    <row r="21" spans="2:3" ht="15">
+      <c r="C21" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="C21" s="32" t="s">
+    <row r="22" spans="2:3" ht="15">
+      <c r="C22" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="C22" s="32" t="s">
+    <row r="23" spans="2:3" ht="15">
+      <c r="C23" s="32" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="C23" s="32" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3522,39 +3586,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="B2" s="41" t="str">
         <f>'Step 1A - UC 1'!B9</f>
-        <v>(Type Your Use Case 1 Short Name Here)</v>
+        <v>(Quality Control with Computer Vision )</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="43">
+      <c r="B3" s="43" t="str">
         <f>'Step 1A - UC 1'!B14</f>
-        <v>0</v>
+        <v>The entire dataset will be explored instead of random sample</v>
       </c>
       <c r="D3" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:11" ht="15">
+      <c r="B4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K3" s="39"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="K4" s="45"/>
     </row>
@@ -3565,20 +3629,20 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="D6" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="D7" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="7"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="D8" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="7"/>
       <c r="K8" s="39"/>
@@ -3586,14 +3650,14 @@
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="D9" s="44"/>
       <c r="E9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="D10" s="44"/>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10" s="45"/>
     </row>
@@ -3603,14 +3667,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="D12" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="D13" s="44"/>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="39"/>
@@ -3618,7 +3682,7 @@
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="D14" s="44"/>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="39"/>
@@ -3626,29 +3690,29 @@
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="D15" s="44"/>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" ht="15">
+      <c r="F16" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="39"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="F16" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="K16" s="45"/>
     </row>
-    <row r="17" spans="4:11">
+    <row r="17" spans="4:11" ht="15">
       <c r="K17" s="39"/>
     </row>
     <row r="18" spans="4:11" ht="15.75" customHeight="1">
       <c r="D18" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K18" s="39"/>
     </row>
     <row r="19" spans="4:11" ht="15.75" customHeight="1">
       <c r="D19" s="44"/>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K19" s="45"/>
     </row>
@@ -3658,65 +3722,65 @@
     </row>
     <row r="21" spans="4:11" ht="15.75" customHeight="1">
       <c r="D21" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K21" s="39"/>
     </row>
     <row r="22" spans="4:11" ht="15.75" customHeight="1">
       <c r="D22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="39"/>
+    </row>
+    <row r="23" spans="4:11" ht="15">
+      <c r="E23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="39"/>
-    </row>
-    <row r="23" spans="4:11">
-      <c r="E23" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="K23" s="39"/>
     </row>
-    <row r="24" spans="4:11">
+    <row r="24" spans="4:11" ht="15">
       <c r="E24" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K24" s="45"/>
     </row>
-    <row r="25" spans="4:11">
+    <row r="25" spans="4:11" ht="15">
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="4:11">
+    <row r="26" spans="4:11" ht="15">
       <c r="K26" s="39"/>
     </row>
-    <row r="27" spans="4:11">
+    <row r="27" spans="4:11" ht="15">
       <c r="K27" s="39"/>
     </row>
-    <row r="28" spans="4:11">
+    <row r="28" spans="4:11" ht="15">
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="4:11">
+    <row r="29" spans="4:11" ht="15">
       <c r="K29" s="39"/>
     </row>
-    <row r="30" spans="4:11">
+    <row r="30" spans="4:11" ht="15">
       <c r="K30" s="39"/>
     </row>
-    <row r="31" spans="4:11">
+    <row r="31" spans="4:11" ht="15">
       <c r="K31" s="39"/>
     </row>
-    <row r="32" spans="4:11">
+    <row r="32" spans="4:11" ht="15">
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" ht="15">
       <c r="K33" s="39"/>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" ht="15">
       <c r="K34" s="39"/>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" ht="15">
       <c r="K35" s="39"/>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" ht="15">
       <c r="K36" s="39"/>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" ht="15">
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="11:11" ht="15">
@@ -6642,11 +6706,11 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" s="39"/>
     </row>
@@ -6665,16 +6729,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="15">
       <c r="B4" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="45"/>
     </row>
@@ -6685,20 +6749,20 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="D6" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="D7" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="7"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="D8" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="7"/>
       <c r="K8" s="39"/>
@@ -6706,14 +6770,14 @@
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="D9" s="44"/>
       <c r="E9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="D10" s="44"/>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10" s="45"/>
     </row>
@@ -6723,14 +6787,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="D12" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="D13" s="44"/>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="39"/>
@@ -6738,7 +6802,7 @@
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="D14" s="44"/>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="39"/>
@@ -6746,29 +6810,29 @@
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="D15" s="44"/>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" ht="15">
+      <c r="F16" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="39"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="F16" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="K16" s="45"/>
     </row>
-    <row r="17" spans="4:11">
+    <row r="17" spans="4:11" ht="15">
       <c r="K17" s="39"/>
     </row>
     <row r="18" spans="4:11" ht="15.75" customHeight="1">
       <c r="D18" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K18" s="39"/>
     </row>
     <row r="19" spans="4:11" ht="15.75" customHeight="1">
       <c r="D19" s="44"/>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K19" s="45"/>
     </row>
@@ -6778,65 +6842,65 @@
     </row>
     <row r="21" spans="4:11" ht="15.75" customHeight="1">
       <c r="D21" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K21" s="39"/>
     </row>
     <row r="22" spans="4:11" ht="15.75" customHeight="1">
       <c r="D22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="39"/>
+    </row>
+    <row r="23" spans="4:11" ht="15">
+      <c r="E23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="39"/>
-    </row>
-    <row r="23" spans="4:11">
-      <c r="E23" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="K23" s="39"/>
     </row>
-    <row r="24" spans="4:11">
+    <row r="24" spans="4:11" ht="15">
       <c r="E24" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K24" s="45"/>
     </row>
-    <row r="25" spans="4:11">
+    <row r="25" spans="4:11" ht="15">
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="4:11">
+    <row r="26" spans="4:11" ht="15">
       <c r="K26" s="39"/>
     </row>
-    <row r="27" spans="4:11">
+    <row r="27" spans="4:11" ht="15">
       <c r="K27" s="39"/>
     </row>
-    <row r="28" spans="4:11">
+    <row r="28" spans="4:11" ht="15">
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="4:11">
+    <row r="29" spans="4:11" ht="15">
       <c r="K29" s="39"/>
     </row>
-    <row r="30" spans="4:11">
+    <row r="30" spans="4:11" ht="15">
       <c r="K30" s="39"/>
     </row>
-    <row r="31" spans="4:11">
+    <row r="31" spans="4:11" ht="15">
       <c r="K31" s="39"/>
     </row>
-    <row r="32" spans="4:11">
+    <row r="32" spans="4:11" ht="15">
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" ht="15">
       <c r="K33" s="39"/>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" ht="15">
       <c r="K34" s="39"/>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" ht="15">
       <c r="K35" s="39"/>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" ht="15">
       <c r="K36" s="39"/>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" ht="15">
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="11:11" ht="15">
@@ -9762,11 +9826,11 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" s="39"/>
     </row>
@@ -9785,16 +9849,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="15">
       <c r="B4" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="45"/>
     </row>
@@ -9805,20 +9869,20 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="D6" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="D7" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="7"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="D8" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="7"/>
       <c r="K8" s="39"/>
@@ -9826,14 +9890,14 @@
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="D9" s="44"/>
       <c r="E9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="D10" s="44"/>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10" s="45"/>
     </row>
@@ -9843,14 +9907,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="D12" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="D13" s="44"/>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="39"/>
@@ -9858,7 +9922,7 @@
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="D14" s="44"/>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="39"/>
@@ -9866,29 +9930,29 @@
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="D15" s="44"/>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" ht="15">
+      <c r="F16" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="39"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="F16" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="K16" s="45"/>
     </row>
-    <row r="17" spans="4:11">
+    <row r="17" spans="4:11" ht="15">
       <c r="K17" s="39"/>
     </row>
     <row r="18" spans="4:11" ht="15.75" customHeight="1">
       <c r="D18" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K18" s="39"/>
     </row>
     <row r="19" spans="4:11" ht="15.75" customHeight="1">
       <c r="D19" s="44"/>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K19" s="45"/>
     </row>
@@ -9898,25 +9962,25 @@
     </row>
     <row r="21" spans="4:11" ht="15.75" customHeight="1">
       <c r="D21" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K21" s="39"/>
     </row>
     <row r="22" spans="4:11" ht="15.75" customHeight="1">
       <c r="D22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="39"/>
+    </row>
+    <row r="23" spans="4:11" ht="15">
+      <c r="E23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="39"/>
-    </row>
-    <row r="23" spans="4:11">
-      <c r="E23" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="K23" s="39"/>
     </row>
-    <row r="24" spans="4:11">
+    <row r="24" spans="4:11" ht="15">
       <c r="E24" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K24" s="45"/>
     </row>
@@ -9928,39 +9992,39 @@
       <c r="D26" s="12"/>
       <c r="K26" s="39"/>
     </row>
-    <row r="27" spans="4:11">
+    <row r="27" spans="4:11" ht="15">
       <c r="E27" s="7"/>
       <c r="K27" s="39"/>
     </row>
-    <row r="28" spans="4:11">
+    <row r="28" spans="4:11" ht="15">
       <c r="E28" s="9"/>
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="4:11">
+    <row r="29" spans="4:11" ht="15">
       <c r="K29" s="39"/>
     </row>
-    <row r="30" spans="4:11">
+    <row r="30" spans="4:11" ht="15">
       <c r="K30" s="39"/>
     </row>
-    <row r="31" spans="4:11">
+    <row r="31" spans="4:11" ht="15">
       <c r="K31" s="39"/>
     </row>
-    <row r="32" spans="4:11">
+    <row r="32" spans="4:11" ht="15">
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" ht="15">
       <c r="K33" s="39"/>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" ht="15">
       <c r="K34" s="39"/>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" ht="15">
       <c r="K35" s="39"/>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" ht="15">
       <c r="K36" s="39"/>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" ht="15">
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="11:11" ht="15">
@@ -12889,11 +12953,11 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" s="39"/>
     </row>
@@ -12912,16 +12976,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="15">
       <c r="B4" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="45"/>
     </row>
@@ -12932,20 +12996,20 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="D7" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="7"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="D8" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="7"/>
       <c r="K8" s="39"/>
@@ -12953,14 +13017,14 @@
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="D9" s="44"/>
       <c r="E9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="D10" s="44"/>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10" s="45"/>
     </row>
@@ -12970,14 +13034,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="D12" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="D13" s="44"/>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="39"/>
@@ -12985,7 +13049,7 @@
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="D14" s="44"/>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="39"/>
@@ -12993,29 +13057,29 @@
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="D15" s="44"/>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" ht="15">
+      <c r="F16" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="39"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="F16" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="K16" s="45"/>
     </row>
-    <row r="17" spans="4:11">
+    <row r="17" spans="4:11" ht="15">
       <c r="K17" s="39"/>
     </row>
     <row r="18" spans="4:11" ht="15.75" customHeight="1">
       <c r="D18" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K18" s="39"/>
     </row>
     <row r="19" spans="4:11" ht="15.75" customHeight="1">
       <c r="D19" s="44"/>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K19" s="45"/>
     </row>
@@ -13025,65 +13089,65 @@
     </row>
     <row r="21" spans="4:11" ht="15.75" customHeight="1">
       <c r="D21" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K21" s="39"/>
     </row>
     <row r="22" spans="4:11" ht="15.75" customHeight="1">
       <c r="D22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="39"/>
+    </row>
+    <row r="23" spans="4:11" ht="15">
+      <c r="E23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="39"/>
-    </row>
-    <row r="23" spans="4:11">
-      <c r="E23" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="K23" s="39"/>
     </row>
-    <row r="24" spans="4:11">
+    <row r="24" spans="4:11" ht="15">
       <c r="E24" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K24" s="45"/>
     </row>
-    <row r="25" spans="4:11">
+    <row r="25" spans="4:11" ht="15">
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="4:11">
+    <row r="26" spans="4:11" ht="15">
       <c r="K26" s="39"/>
     </row>
-    <row r="27" spans="4:11">
+    <row r="27" spans="4:11" ht="15">
       <c r="K27" s="39"/>
     </row>
-    <row r="28" spans="4:11">
+    <row r="28" spans="4:11" ht="15">
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="4:11">
+    <row r="29" spans="4:11" ht="15">
       <c r="K29" s="39"/>
     </row>
-    <row r="30" spans="4:11">
+    <row r="30" spans="4:11" ht="15">
       <c r="K30" s="39"/>
     </row>
-    <row r="31" spans="4:11">
+    <row r="31" spans="4:11" ht="15">
       <c r="K31" s="39"/>
     </row>
-    <row r="32" spans="4:11">
+    <row r="32" spans="4:11" ht="15">
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" ht="15">
       <c r="K33" s="39"/>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" ht="15">
       <c r="K34" s="39"/>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" ht="15">
       <c r="K35" s="39"/>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" ht="15">
       <c r="K36" s="39"/>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" ht="15">
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="11:11" ht="15">
@@ -16009,11 +16073,11 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" s="39"/>
     </row>
@@ -16032,16 +16096,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="15">
       <c r="B4" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="45"/>
     </row>
@@ -16052,20 +16116,20 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="D6" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="D7" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="7"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="D8" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="7"/>
       <c r="K8" s="39"/>
@@ -16073,14 +16137,14 @@
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="D9" s="44"/>
       <c r="E9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="D10" s="44"/>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10" s="45"/>
     </row>
@@ -16090,14 +16154,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="D12" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="D13" s="44"/>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="39"/>
@@ -16105,7 +16169,7 @@
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="D14" s="44"/>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="39"/>
@@ -16113,29 +16177,29 @@
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="D15" s="44"/>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" ht="15">
+      <c r="F16" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="39"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="F16" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="K16" s="45"/>
     </row>
-    <row r="17" spans="4:11">
+    <row r="17" spans="4:11" ht="15">
       <c r="K17" s="39"/>
     </row>
     <row r="18" spans="4:11" ht="15.75" customHeight="1">
       <c r="D18" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K18" s="39"/>
     </row>
     <row r="19" spans="4:11" ht="15.75" customHeight="1">
       <c r="D19" s="44"/>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K19" s="45"/>
     </row>
@@ -16145,65 +16209,65 @@
     </row>
     <row r="21" spans="4:11" ht="15.75" customHeight="1">
       <c r="D21" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K21" s="39"/>
     </row>
     <row r="22" spans="4:11" ht="15.75" customHeight="1">
       <c r="D22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="39"/>
+    </row>
+    <row r="23" spans="4:11" ht="15">
+      <c r="E23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="39"/>
-    </row>
-    <row r="23" spans="4:11">
-      <c r="E23" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="K23" s="39"/>
     </row>
-    <row r="24" spans="4:11">
+    <row r="24" spans="4:11" ht="15">
       <c r="E24" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K24" s="45"/>
     </row>
-    <row r="25" spans="4:11">
+    <row r="25" spans="4:11" ht="15">
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="4:11">
+    <row r="26" spans="4:11" ht="15">
       <c r="K26" s="39"/>
     </row>
-    <row r="27" spans="4:11">
+    <row r="27" spans="4:11" ht="15">
       <c r="K27" s="39"/>
     </row>
-    <row r="28" spans="4:11">
+    <row r="28" spans="4:11" ht="15">
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="4:11">
+    <row r="29" spans="4:11" ht="15">
       <c r="K29" s="39"/>
     </row>
-    <row r="30" spans="4:11">
+    <row r="30" spans="4:11" ht="15">
       <c r="K30" s="39"/>
     </row>
-    <row r="31" spans="4:11">
+    <row r="31" spans="4:11" ht="15">
       <c r="K31" s="39"/>
     </row>
-    <row r="32" spans="4:11">
+    <row r="32" spans="4:11" ht="15">
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" ht="15">
       <c r="K33" s="39"/>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" ht="15">
       <c r="K34" s="39"/>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" ht="15">
       <c r="K35" s="39"/>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" ht="15">
       <c r="K36" s="39"/>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" ht="15">
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="11:11" ht="15">
@@ -19128,30 +19192,30 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="B2" s="83" t="str">
         <f>'Step 1A - UC 1'!B9</f>
-        <v>(Type Your Use Case 1 Short Name Here)</v>
+        <v>(Quality Control with Computer Vision )</v>
       </c>
       <c r="C2" s="84"/>
       <c r="E2" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B3" s="48">
+      <c r="B3" s="48" t="str">
         <f>'Step 1A - UC 1'!C14</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="48">
+        <v>The devices will be checked using CV to check if it is defective or not</v>
+      </c>
+      <c r="C3" s="48" t="str">
         <f>'Step 1A - UC 1'!D14</f>
-        <v>0</v>
+        <v xml:space="preserve">if number of defective devices &gt; threshold </v>
       </c>
       <c r="E3" s="49"/>
     </row>
@@ -19166,7 +19230,7 @@
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -19174,28 +19238,28 @@
       <c r="C5" s="52"/>
       <c r="E5" s="51"/>
       <c r="F5" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="E6" s="51"/>
       <c r="F6" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="E7" s="51"/>
       <c r="F7" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="E8" s="51"/>
       <c r="F8" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="53" t="s">
         <v>127</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
@@ -19228,10 +19292,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
@@ -19241,7 +19305,7 @@
       </c>
       <c r="C2" s="84"/>
       <c r="E2" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
@@ -19266,7 +19330,7 @@
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -19280,28 +19344,28 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="E6" s="45"/>
       <c r="F6" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="E7" s="45"/>
       <c r="F7" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="E8" s="51"/>
       <c r="F8" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="53" t="s">
         <v>127</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
@@ -19324,7 +19388,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -19358,63 +19422,68 @@
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15">
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
       <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="86"/>
+      <c r="C6" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="87" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="15">
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15">
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15">
       <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11" s="7" t="s">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="7" t="s">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="C13" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="F13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19437,10 +19506,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
@@ -19450,7 +19519,7 @@
       </c>
       <c r="C2" s="84"/>
       <c r="E2" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
@@ -19475,7 +19544,7 @@
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -19489,28 +19558,28 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="E6" s="45"/>
       <c r="F6" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="E7" s="45"/>
       <c r="F7" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="E8" s="51"/>
       <c r="F8" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="53" t="s">
         <v>127</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
@@ -19543,10 +19612,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
@@ -19556,7 +19625,7 @@
       </c>
       <c r="C2" s="84"/>
       <c r="E2" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
@@ -19581,7 +19650,7 @@
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -19595,28 +19664,28 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="E6" s="45"/>
       <c r="F6" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="E7" s="45"/>
       <c r="F7" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="E8" s="51"/>
       <c r="F8" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="53" t="s">
         <v>127</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
@@ -19649,10 +19718,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
@@ -19662,7 +19731,7 @@
       </c>
       <c r="C2" s="84"/>
       <c r="E2" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
@@ -19687,7 +19756,7 @@
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -19701,28 +19770,28 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="E6" s="45"/>
       <c r="F6" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="E7" s="45"/>
       <c r="F7" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="E8" s="51"/>
       <c r="F8" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="53" t="s">
         <v>127</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
@@ -19750,7 +19819,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -19772,7 +19841,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -19798,7 +19867,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -19830,7 +19899,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -19862,13 +19931,13 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="59"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="15">
       <c r="A4" s="60"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -19876,7 +19945,7 @@
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="A5" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -19884,7 +19953,7 @@
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -19914,46 +19983,46 @@
       <c r="AA6" s="65"/>
       <c r="AB6" s="65"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="30">
       <c r="A7" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="57"/>
       <c r="E7" s="67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15">
+      <c r="A8" s="66" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="66" t="s">
-        <v>141</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
       <c r="D8" s="57"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" ht="30">
       <c r="A9" s="60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
       <c r="D9" s="57"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" ht="45">
       <c r="A10" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
       <c r="D10" s="57"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" ht="30">
       <c r="A11" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -19961,7 +20030,7 @@
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1">
       <c r="A12" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -19991,46 +20060,46 @@
       <c r="AA12" s="65"/>
       <c r="AB12" s="65"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" ht="30">
       <c r="A13" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="67"/>
       <c r="C13" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15">
       <c r="A14" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="57"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" ht="30">
       <c r="A15" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="57"/>
+    </row>
+    <row r="16" spans="1:28" ht="45">
+      <c r="A16" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="57"/>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="60" t="s">
+      <c r="D16" s="57"/>
+    </row>
+    <row r="17" spans="1:28" ht="30">
+      <c r="A17" s="60" t="s">
         <v>143</v>
-      </c>
-      <c r="D16" s="57"/>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="60" t="s">
-        <v>144</v>
       </c>
       <c r="D17" s="57"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1">
       <c r="A18" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -20060,46 +20129,46 @@
       <c r="AA18" s="65"/>
       <c r="AB18" s="65"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" ht="30">
       <c r="A19" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="30">
       <c r="A20" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="59"/>
+    </row>
+    <row r="21" spans="1:28" ht="15">
+      <c r="A21" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="59"/>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="60" t="s">
+      <c r="D21" s="59"/>
+    </row>
+    <row r="22" spans="1:28" ht="30">
+      <c r="A22" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="59"/>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="66" t="s">
+      <c r="D22" s="59"/>
+    </row>
+    <row r="23" spans="1:28" ht="45">
+      <c r="A23" s="66" t="s">
         <v>151</v>
-      </c>
-      <c r="D22" s="59"/>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="66" t="s">
-        <v>152</v>
       </c>
       <c r="D23" s="59"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1">
       <c r="A24" s="62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
@@ -20129,46 +20198,46 @@
       <c r="AA24" s="65"/>
       <c r="AB24" s="65"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" ht="25.5">
       <c r="A25" s="60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="67"/>
       <c r="C25" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="30">
       <c r="A26" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="59"/>
+    </row>
+    <row r="27" spans="1:28" ht="30">
+      <c r="A27" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="59"/>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="60" t="s">
+      <c r="D27" s="59"/>
+    </row>
+    <row r="28" spans="1:28" ht="30">
+      <c r="A28" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="59"/>
+    </row>
+    <row r="29" spans="1:28" ht="45">
+      <c r="A29" s="66" t="s">
         <v>156</v>
-      </c>
-      <c r="D27" s="59"/>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="59"/>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="66" t="s">
-        <v>157</v>
       </c>
       <c r="D29" s="59"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1">
       <c r="A30" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
@@ -20198,46 +20267,46 @@
       <c r="AA30" s="65"/>
       <c r="AB30" s="65"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" ht="30">
       <c r="A31" s="60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="30">
       <c r="A32" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="59"/>
+    </row>
+    <row r="33" spans="1:28" ht="45">
+      <c r="A33" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="59"/>
-    </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="66" t="s">
+      <c r="D33" s="59"/>
+    </row>
+    <row r="34" spans="1:28" ht="30">
+      <c r="A34" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="59"/>
-    </row>
-    <row r="34" spans="1:28">
-      <c r="A34" s="60" t="s">
+      <c r="D34" s="59"/>
+    </row>
+    <row r="35" spans="1:28" ht="30">
+      <c r="A35" s="60" t="s">
         <v>162</v>
-      </c>
-      <c r="D34" s="59"/>
-    </row>
-    <row r="35" spans="1:28">
-      <c r="A35" s="60" t="s">
-        <v>163</v>
       </c>
       <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1">
       <c r="A36" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -20267,46 +20336,46 @@
       <c r="AA36" s="65"/>
       <c r="AB36" s="65"/>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" ht="45">
       <c r="A37" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" s="67"/>
       <c r="C37" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="30">
       <c r="A38" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" s="59"/>
     </row>
     <row r="39" spans="1:28" ht="45">
       <c r="A39" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="59"/>
     </row>
     <row r="40" spans="1:28" ht="45">
       <c r="A40" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="59"/>
     </row>
     <row r="41" spans="1:28" ht="45">
       <c r="A41" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D41" s="59"/>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B42" s="65"/>
       <c r="C42" s="65"/>
@@ -20338,44 +20407,44 @@
     </row>
     <row r="43" spans="1:28" ht="30">
       <c r="A43" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B43" s="67"/>
       <c r="C43" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="15">
       <c r="A44" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D44" s="59"/>
     </row>
     <row r="45" spans="1:28" ht="30">
       <c r="A45" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D45" s="59"/>
     </row>
     <row r="46" spans="1:28" ht="45">
       <c r="A46" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:28" ht="30">
       <c r="A47" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" s="59"/>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" s="65"/>
       <c r="C48" s="65"/>
@@ -20407,44 +20476,44 @@
     </row>
     <row r="49" spans="1:28" ht="30">
       <c r="A49" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="67"/>
       <c r="C49" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" s="57"/>
       <c r="E49" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="30">
       <c r="A50" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D50" s="57"/>
     </row>
     <row r="51" spans="1:28" ht="30">
       <c r="A51" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D51" s="57"/>
     </row>
     <row r="52" spans="1:28" ht="45">
       <c r="A52" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D52" s="57"/>
     </row>
     <row r="53" spans="1:28" ht="45">
       <c r="A53" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="65"/>
       <c r="C54" s="65"/>
@@ -20476,44 +20545,44 @@
     </row>
     <row r="55" spans="1:28" ht="30">
       <c r="A55" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="67"/>
       <c r="C55" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D55" s="57"/>
       <c r="E55" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="30">
       <c r="A56" s="66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D56" s="57"/>
     </row>
     <row r="57" spans="1:28" ht="30">
       <c r="A57" s="66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D57" s="57"/>
     </row>
     <row r="58" spans="1:28" ht="45">
       <c r="A58" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" s="57"/>
     </row>
     <row r="59" spans="1:28" ht="30">
       <c r="A59" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="57"/>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="65"/>
       <c r="C60" s="65"/>
@@ -20545,44 +20614,44 @@
     </row>
     <row r="61" spans="1:28" ht="30">
       <c r="A61" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B61" s="67"/>
       <c r="C61" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D61" s="59"/>
       <c r="E61" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="45">
       <c r="A62" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="59"/>
     </row>
     <row r="63" spans="1:28" ht="30">
       <c r="A63" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="59"/>
     </row>
     <row r="64" spans="1:28" ht="30">
       <c r="A64" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="59"/>
     </row>
     <row r="65" spans="1:28" ht="30">
       <c r="A65" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="59"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B66" s="65"/>
       <c r="C66" s="65"/>
@@ -20614,44 +20683,44 @@
     </row>
     <row r="67" spans="1:28" ht="30">
       <c r="A67" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B67" s="67"/>
       <c r="C67" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D67" s="59"/>
       <c r="E67" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="30">
       <c r="A68" s="60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="59"/>
     </row>
     <row r="69" spans="1:28" ht="30">
       <c r="A69" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="59"/>
     </row>
     <row r="70" spans="1:28" ht="45">
       <c r="A70" s="60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="59"/>
     </row>
     <row r="71" spans="1:28" ht="45">
       <c r="A71" s="60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D71" s="59"/>
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B72" s="65"/>
       <c r="C72" s="65"/>
@@ -20683,44 +20752,44 @@
     </row>
     <row r="73" spans="1:28" ht="30">
       <c r="A73" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" s="67"/>
       <c r="C73" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D73" s="59"/>
       <c r="E73" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="30">
       <c r="A74" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74" s="59"/>
     </row>
     <row r="75" spans="1:28" ht="30">
       <c r="A75" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D75" s="59"/>
     </row>
     <row r="76" spans="1:28" ht="30">
       <c r="A76" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D76" s="59"/>
     </row>
     <row r="77" spans="1:28" ht="45">
       <c r="A77" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D77" s="59"/>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B78" s="65"/>
       <c r="C78" s="65"/>
@@ -20752,44 +20821,44 @@
     </row>
     <row r="79" spans="1:28" ht="30">
       <c r="A79" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B79" s="67"/>
       <c r="C79" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D79" s="59"/>
       <c r="E79" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="30">
       <c r="A80" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D80" s="59"/>
     </row>
     <row r="81" spans="1:28" ht="30">
       <c r="A81" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D81" s="59"/>
     </row>
     <row r="82" spans="1:28" ht="30">
       <c r="A82" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D82" s="59"/>
     </row>
     <row r="83" spans="1:28" ht="45">
       <c r="A83" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D83" s="59"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B84" s="65"/>
       <c r="C84" s="65"/>
@@ -20821,44 +20890,44 @@
     </row>
     <row r="85" spans="1:28" ht="30">
       <c r="A85" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B85" s="67"/>
       <c r="C85" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D85" s="59"/>
       <c r="E85" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="30">
       <c r="A86" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D86" s="59"/>
     </row>
     <row r="87" spans="1:28" ht="15">
       <c r="A87" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D87" s="59"/>
     </row>
     <row r="88" spans="1:28" ht="30">
       <c r="A88" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D88" s="59"/>
     </row>
     <row r="89" spans="1:28" ht="45">
       <c r="A89" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D89" s="59"/>
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
@@ -20890,44 +20959,44 @@
     </row>
     <row r="91" spans="1:28" ht="45">
       <c r="A91" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B91" s="67"/>
       <c r="C91" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D91" s="59"/>
       <c r="E91" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="30">
       <c r="A92" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D92" s="59"/>
     </row>
     <row r="93" spans="1:28" ht="15">
       <c r="A93" s="66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D93" s="59"/>
     </row>
     <row r="94" spans="1:28" ht="45">
       <c r="A94" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D94" s="59"/>
     </row>
     <row r="95" spans="1:28" ht="30">
       <c r="A95" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D95" s="59"/>
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B96" s="65"/>
       <c r="C96" s="65"/>
@@ -20959,44 +21028,44 @@
     </row>
     <row r="97" spans="1:28" ht="45">
       <c r="A97" s="60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B97" s="67"/>
       <c r="C97" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D97" s="59"/>
       <c r="E97" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="30">
       <c r="A98" s="66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D98" s="59"/>
     </row>
     <row r="99" spans="1:28" ht="30">
       <c r="A99" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D99" s="59"/>
     </row>
     <row r="100" spans="1:28" ht="30">
       <c r="A100" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D100" s="59"/>
     </row>
     <row r="101" spans="1:28" ht="45">
       <c r="A101" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D101" s="59"/>
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B102" s="65"/>
       <c r="C102" s="65"/>
@@ -21028,44 +21097,44 @@
     </row>
     <row r="103" spans="1:28" ht="45">
       <c r="A103" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B103" s="67"/>
       <c r="C103" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D103" s="59"/>
       <c r="E103" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="30">
       <c r="A104" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D104" s="59"/>
     </row>
     <row r="105" spans="1:28" ht="30">
       <c r="A105" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D105" s="59"/>
     </row>
     <row r="106" spans="1:28" ht="30">
       <c r="A106" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D106" s="59"/>
     </row>
     <row r="107" spans="1:28" ht="45">
       <c r="A107" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D107" s="59"/>
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
@@ -21097,38 +21166,38 @@
     </row>
     <row r="109" spans="1:28" ht="30">
       <c r="A109" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B109" s="67"/>
       <c r="C109" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D109" s="57"/>
       <c r="E109" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="30">
       <c r="A110" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D110" s="57"/>
     </row>
     <row r="111" spans="1:28" ht="30">
       <c r="A111" s="69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D111" s="57"/>
     </row>
     <row r="112" spans="1:28" ht="30">
       <c r="A112" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D112" s="57"/>
     </row>
     <row r="113" spans="1:4" ht="45">
       <c r="A113" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113" s="57"/>
     </row>
@@ -23950,7 +24019,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -23982,7 +24051,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -24014,13 +24083,13 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="59"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="15">
       <c r="A4" s="60"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -24028,7 +24097,7 @@
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="A5" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -24036,7 +24105,7 @@
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -24066,48 +24135,48 @@
       <c r="AA6" s="65"/>
       <c r="AB6" s="65"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="30">
       <c r="A7" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="57">
         <v>2</v>
       </c>
       <c r="E7" s="67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15">
+      <c r="A8" s="66" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="66" t="s">
-        <v>141</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
       <c r="D8" s="57"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" ht="30">
       <c r="A9" s="60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
       <c r="D9" s="57"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" ht="45">
       <c r="A10" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
       <c r="D10" s="57"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" ht="30">
       <c r="A11" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -24115,7 +24184,7 @@
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1">
       <c r="A12" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -24145,46 +24214,46 @@
       <c r="AA12" s="65"/>
       <c r="AB12" s="65"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" ht="30">
       <c r="A13" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="67"/>
       <c r="C13" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15">
       <c r="A14" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="57"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" ht="30">
       <c r="A15" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="57"/>
+    </row>
+    <row r="16" spans="1:28" ht="45">
+      <c r="A16" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="57"/>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="60" t="s">
+      <c r="D16" s="57"/>
+    </row>
+    <row r="17" spans="1:28" ht="30">
+      <c r="A17" s="60" t="s">
         <v>143</v>
-      </c>
-      <c r="D16" s="57"/>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="60" t="s">
-        <v>144</v>
       </c>
       <c r="D17" s="57"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1">
       <c r="A18" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -24214,46 +24283,46 @@
       <c r="AA18" s="65"/>
       <c r="AB18" s="65"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" ht="30">
       <c r="A19" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="30">
       <c r="A20" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="59"/>
+    </row>
+    <row r="21" spans="1:28" ht="15">
+      <c r="A21" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="59"/>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="60" t="s">
+      <c r="D21" s="59"/>
+    </row>
+    <row r="22" spans="1:28" ht="30">
+      <c r="A22" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="59"/>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="66" t="s">
+      <c r="D22" s="59"/>
+    </row>
+    <row r="23" spans="1:28" ht="45">
+      <c r="A23" s="66" t="s">
         <v>151</v>
-      </c>
-      <c r="D22" s="59"/>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="66" t="s">
-        <v>152</v>
       </c>
       <c r="D23" s="59"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1">
       <c r="A24" s="62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
@@ -24283,46 +24352,46 @@
       <c r="AA24" s="65"/>
       <c r="AB24" s="65"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" ht="25.5">
       <c r="A25" s="60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="67"/>
       <c r="C25" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="30">
       <c r="A26" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="59"/>
+    </row>
+    <row r="27" spans="1:28" ht="30">
+      <c r="A27" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="59"/>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="60" t="s">
+      <c r="D27" s="59"/>
+    </row>
+    <row r="28" spans="1:28" ht="30">
+      <c r="A28" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="59"/>
+    </row>
+    <row r="29" spans="1:28" ht="45">
+      <c r="A29" s="66" t="s">
         <v>156</v>
-      </c>
-      <c r="D27" s="59"/>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="59"/>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="66" t="s">
-        <v>157</v>
       </c>
       <c r="D29" s="59"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1">
       <c r="A30" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
@@ -24352,46 +24421,46 @@
       <c r="AA30" s="65"/>
       <c r="AB30" s="65"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" ht="30">
       <c r="A31" s="60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="30">
       <c r="A32" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="59"/>
+    </row>
+    <row r="33" spans="1:28" ht="45">
+      <c r="A33" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="59"/>
-    </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="66" t="s">
+      <c r="D33" s="59"/>
+    </row>
+    <row r="34" spans="1:28" ht="30">
+      <c r="A34" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="59"/>
-    </row>
-    <row r="34" spans="1:28">
-      <c r="A34" s="60" t="s">
+      <c r="D34" s="59"/>
+    </row>
+    <row r="35" spans="1:28" ht="30">
+      <c r="A35" s="60" t="s">
         <v>162</v>
-      </c>
-      <c r="D34" s="59"/>
-    </row>
-    <row r="35" spans="1:28">
-      <c r="A35" s="60" t="s">
-        <v>163</v>
       </c>
       <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1">
       <c r="A36" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -24421,46 +24490,46 @@
       <c r="AA36" s="65"/>
       <c r="AB36" s="65"/>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" ht="45">
       <c r="A37" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" s="67"/>
       <c r="C37" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="30">
       <c r="A38" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" s="59"/>
     </row>
     <row r="39" spans="1:28" ht="45">
       <c r="A39" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="59"/>
     </row>
     <row r="40" spans="1:28" ht="45">
       <c r="A40" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="59"/>
     </row>
     <row r="41" spans="1:28" ht="45">
       <c r="A41" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D41" s="59"/>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B42" s="65"/>
       <c r="C42" s="65"/>
@@ -24492,44 +24561,44 @@
     </row>
     <row r="43" spans="1:28" ht="30">
       <c r="A43" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B43" s="67"/>
       <c r="C43" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="15">
       <c r="A44" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D44" s="59"/>
     </row>
     <row r="45" spans="1:28" ht="30">
       <c r="A45" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D45" s="59"/>
     </row>
     <row r="46" spans="1:28" ht="45">
       <c r="A46" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:28" ht="30">
       <c r="A47" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" s="59"/>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" s="65"/>
       <c r="C48" s="65"/>
@@ -24561,22 +24630,22 @@
     </row>
     <row r="49" spans="1:28" ht="30">
       <c r="A49" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="67"/>
       <c r="C49" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" s="57">
         <v>5</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="30">
       <c r="A50" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D50" s="57">
         <v>4</v>
@@ -24584,7 +24653,7 @@
     </row>
     <row r="51" spans="1:28" ht="30">
       <c r="A51" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D51" s="57">
         <v>4</v>
@@ -24592,7 +24661,7 @@
     </row>
     <row r="52" spans="1:28" ht="45">
       <c r="A52" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D52" s="57">
         <v>5</v>
@@ -24600,7 +24669,7 @@
     </row>
     <row r="53" spans="1:28" ht="45">
       <c r="A53" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53" s="57">
         <v>5</v>
@@ -24608,7 +24677,7 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="65"/>
       <c r="C54" s="65"/>
@@ -24640,44 +24709,44 @@
     </row>
     <row r="55" spans="1:28" ht="30">
       <c r="A55" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="67"/>
       <c r="C55" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D55" s="57"/>
       <c r="E55" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="30">
       <c r="A56" s="66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D56" s="57"/>
     </row>
     <row r="57" spans="1:28" ht="30">
       <c r="A57" s="66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D57" s="57"/>
     </row>
     <row r="58" spans="1:28" ht="45">
       <c r="A58" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" s="57"/>
     </row>
     <row r="59" spans="1:28" ht="30">
       <c r="A59" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="57"/>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="65"/>
       <c r="C60" s="65"/>
@@ -24709,44 +24778,44 @@
     </row>
     <row r="61" spans="1:28" ht="30">
       <c r="A61" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B61" s="67"/>
       <c r="C61" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D61" s="59"/>
       <c r="E61" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="45">
       <c r="A62" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="59"/>
     </row>
     <row r="63" spans="1:28" ht="30">
       <c r="A63" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="59"/>
     </row>
     <row r="64" spans="1:28" ht="30">
       <c r="A64" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="59"/>
     </row>
     <row r="65" spans="1:28" ht="30">
       <c r="A65" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="59"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B66" s="65"/>
       <c r="C66" s="65"/>
@@ -24778,44 +24847,44 @@
     </row>
     <row r="67" spans="1:28" ht="30">
       <c r="A67" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B67" s="67"/>
       <c r="C67" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D67" s="59"/>
       <c r="E67" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="30">
       <c r="A68" s="60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="59"/>
     </row>
     <row r="69" spans="1:28" ht="30">
       <c r="A69" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="59"/>
     </row>
     <row r="70" spans="1:28" ht="45">
       <c r="A70" s="60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="59"/>
     </row>
     <row r="71" spans="1:28" ht="45">
       <c r="A71" s="60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D71" s="59"/>
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B72" s="65"/>
       <c r="C72" s="65"/>
@@ -24847,44 +24916,44 @@
     </row>
     <row r="73" spans="1:28" ht="30">
       <c r="A73" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" s="67"/>
       <c r="C73" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D73" s="59"/>
       <c r="E73" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="30">
       <c r="A74" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74" s="59"/>
     </row>
     <row r="75" spans="1:28" ht="30">
       <c r="A75" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D75" s="59"/>
     </row>
     <row r="76" spans="1:28" ht="30">
       <c r="A76" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D76" s="59"/>
     </row>
     <row r="77" spans="1:28" ht="45">
       <c r="A77" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D77" s="59"/>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B78" s="65"/>
       <c r="C78" s="65"/>
@@ -24916,44 +24985,44 @@
     </row>
     <row r="79" spans="1:28" ht="30">
       <c r="A79" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B79" s="67"/>
       <c r="C79" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D79" s="59"/>
       <c r="E79" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="30">
       <c r="A80" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D80" s="59"/>
     </row>
     <row r="81" spans="1:28" ht="30">
       <c r="A81" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D81" s="59"/>
     </row>
     <row r="82" spans="1:28" ht="30">
       <c r="A82" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D82" s="59"/>
     </row>
     <row r="83" spans="1:28" ht="45">
       <c r="A83" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D83" s="59"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B84" s="65"/>
       <c r="C84" s="65"/>
@@ -24985,44 +25054,44 @@
     </row>
     <row r="85" spans="1:28" ht="30">
       <c r="A85" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B85" s="67"/>
       <c r="C85" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D85" s="59"/>
       <c r="E85" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="30">
       <c r="A86" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D86" s="59"/>
     </row>
     <row r="87" spans="1:28" ht="15">
       <c r="A87" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D87" s="59"/>
     </row>
     <row r="88" spans="1:28" ht="30">
       <c r="A88" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D88" s="59"/>
     </row>
     <row r="89" spans="1:28" ht="45">
       <c r="A89" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D89" s="59"/>
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
@@ -25054,44 +25123,44 @@
     </row>
     <row r="91" spans="1:28" ht="45">
       <c r="A91" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B91" s="67"/>
       <c r="C91" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D91" s="59"/>
       <c r="E91" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="30">
       <c r="A92" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D92" s="59"/>
     </row>
     <row r="93" spans="1:28" ht="15">
       <c r="A93" s="66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D93" s="59"/>
     </row>
     <row r="94" spans="1:28" ht="45">
       <c r="A94" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D94" s="59"/>
     </row>
     <row r="95" spans="1:28" ht="30">
       <c r="A95" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D95" s="59"/>
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B96" s="65"/>
       <c r="C96" s="65"/>
@@ -25123,44 +25192,44 @@
     </row>
     <row r="97" spans="1:28" ht="45">
       <c r="A97" s="60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B97" s="67"/>
       <c r="C97" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D97" s="59"/>
       <c r="E97" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="30">
       <c r="A98" s="66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D98" s="59"/>
     </row>
     <row r="99" spans="1:28" ht="30">
       <c r="A99" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D99" s="59"/>
     </row>
     <row r="100" spans="1:28" ht="30">
       <c r="A100" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D100" s="59"/>
     </row>
     <row r="101" spans="1:28" ht="45">
       <c r="A101" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D101" s="59"/>
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B102" s="65"/>
       <c r="C102" s="65"/>
@@ -25192,44 +25261,44 @@
     </row>
     <row r="103" spans="1:28" ht="45">
       <c r="A103" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B103" s="67"/>
       <c r="C103" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D103" s="59"/>
       <c r="E103" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="30">
       <c r="A104" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D104" s="59"/>
     </row>
     <row r="105" spans="1:28" ht="30">
       <c r="A105" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D105" s="59"/>
     </row>
     <row r="106" spans="1:28" ht="30">
       <c r="A106" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D106" s="59"/>
     </row>
     <row r="107" spans="1:28" ht="45">
       <c r="A107" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D107" s="59"/>
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
@@ -25261,38 +25330,38 @@
     </row>
     <row r="109" spans="1:28" ht="30">
       <c r="A109" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B109" s="67"/>
       <c r="C109" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D109" s="57"/>
       <c r="E109" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="30">
       <c r="A110" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D110" s="57"/>
     </row>
     <row r="111" spans="1:28" ht="30">
       <c r="A111" s="69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D111" s="57"/>
     </row>
     <row r="112" spans="1:28" ht="30">
       <c r="A112" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D112" s="57"/>
     </row>
     <row r="113" spans="1:4" ht="45">
       <c r="A113" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113" s="57"/>
     </row>
@@ -28113,7 +28182,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -28127,7 +28196,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -28141,13 +28210,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="59"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="60"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -28155,7 +28224,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -28163,7 +28232,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -28175,46 +28244,46 @@
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="57"/>
       <c r="E7" s="67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="66" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="66" t="s">
-        <v>141</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
       <c r="D8" s="57"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="30">
       <c r="A9" s="60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
       <c r="D9" s="57"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="45">
       <c r="A10" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
       <c r="D10" s="57"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -28222,7 +28291,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -28234,46 +28303,46 @@
       <c r="I12" s="65"/>
       <c r="J12" s="65"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="30">
       <c r="A13" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="67"/>
       <c r="C13" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="57"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="57"/>
+    </row>
+    <row r="16" spans="1:10" ht="45">
+      <c r="A16" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="57"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="60" t="s">
+      <c r="D16" s="57"/>
+    </row>
+    <row r="17" spans="1:10" ht="30">
+      <c r="A17" s="60" t="s">
         <v>143</v>
-      </c>
-      <c r="D16" s="57"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="60" t="s">
-        <v>144</v>
       </c>
       <c r="D17" s="57"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -28285,46 +28354,46 @@
       <c r="I18" s="65"/>
       <c r="J18" s="65"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="30">
       <c r="A19" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30">
       <c r="A20" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="59"/>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="59"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="60" t="s">
+      <c r="D21" s="59"/>
+    </row>
+    <row r="22" spans="1:10" ht="30">
+      <c r="A22" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="59"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="66" t="s">
+      <c r="D22" s="59"/>
+    </row>
+    <row r="23" spans="1:10" ht="45">
+      <c r="A23" s="66" t="s">
         <v>151</v>
-      </c>
-      <c r="D22" s="59"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="66" t="s">
-        <v>152</v>
       </c>
       <c r="D23" s="59"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
@@ -28336,46 +28405,46 @@
       <c r="I24" s="65"/>
       <c r="J24" s="65"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="25.5">
       <c r="A25" s="60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="67"/>
       <c r="C25" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30">
       <c r="A26" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="59"/>
+    </row>
+    <row r="27" spans="1:10" ht="30">
+      <c r="A27" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="59"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="60" t="s">
+      <c r="D27" s="59"/>
+    </row>
+    <row r="28" spans="1:10" ht="30">
+      <c r="A28" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="59"/>
+    </row>
+    <row r="29" spans="1:10" ht="45">
+      <c r="A29" s="66" t="s">
         <v>156</v>
-      </c>
-      <c r="D27" s="59"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="59"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="66" t="s">
-        <v>157</v>
       </c>
       <c r="D29" s="59"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
@@ -28387,46 +28456,46 @@
       <c r="I30" s="65"/>
       <c r="J30" s="65"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="30">
       <c r="A31" s="60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30">
       <c r="A32" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="59"/>
+    </row>
+    <row r="33" spans="1:10" ht="45">
+      <c r="A33" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="59"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="66" t="s">
+      <c r="D33" s="59"/>
+    </row>
+    <row r="34" spans="1:10" ht="30">
+      <c r="A34" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="59"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="60" t="s">
+      <c r="D34" s="59"/>
+    </row>
+    <row r="35" spans="1:10" ht="30">
+      <c r="A35" s="60" t="s">
         <v>162</v>
-      </c>
-      <c r="D34" s="59"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="60" t="s">
-        <v>163</v>
       </c>
       <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
       <c r="A36" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -28438,46 +28507,46 @@
       <c r="I36" s="65"/>
       <c r="J36" s="65"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="45">
       <c r="A37" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" s="67"/>
       <c r="C37" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="30">
       <c r="A38" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" s="59"/>
     </row>
     <row r="39" spans="1:10" ht="45">
       <c r="A39" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="59"/>
     </row>
     <row r="40" spans="1:10" ht="45">
       <c r="A40" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="59"/>
     </row>
     <row r="41" spans="1:10" ht="45">
       <c r="A41" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D41" s="59"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B42" s="65"/>
       <c r="C42" s="65"/>
@@ -28491,44 +28560,44 @@
     </row>
     <row r="43" spans="1:10" ht="30">
       <c r="A43" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B43" s="67"/>
       <c r="C43" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D44" s="59"/>
     </row>
     <row r="45" spans="1:10" ht="30">
       <c r="A45" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D45" s="59"/>
     </row>
     <row r="46" spans="1:10" ht="45">
       <c r="A46" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:10" ht="30">
       <c r="A47" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" s="59"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" s="65"/>
       <c r="C48" s="65"/>
@@ -28542,44 +28611,44 @@
     </row>
     <row r="49" spans="1:10" ht="30">
       <c r="A49" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="67"/>
       <c r="C49" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" s="57"/>
       <c r="E49" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30">
       <c r="A50" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D50" s="57"/>
     </row>
     <row r="51" spans="1:10" ht="30">
       <c r="A51" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D51" s="57"/>
     </row>
     <row r="52" spans="1:10" ht="45">
       <c r="A52" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D52" s="57"/>
     </row>
     <row r="53" spans="1:10" ht="45">
       <c r="A53" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="65"/>
       <c r="C54" s="65"/>
@@ -28593,44 +28662,44 @@
     </row>
     <row r="55" spans="1:10" ht="30">
       <c r="A55" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="67"/>
       <c r="C55" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D55" s="57"/>
       <c r="E55" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30">
       <c r="A56" s="66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D56" s="57"/>
     </row>
     <row r="57" spans="1:10" ht="30">
       <c r="A57" s="66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D57" s="57"/>
     </row>
     <row r="58" spans="1:10" ht="45">
       <c r="A58" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" s="57"/>
     </row>
     <row r="59" spans="1:10" ht="30">
       <c r="A59" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="57"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="65"/>
       <c r="C60" s="65"/>
@@ -28644,44 +28713,44 @@
     </row>
     <row r="61" spans="1:10" ht="30">
       <c r="A61" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B61" s="67"/>
       <c r="C61" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D61" s="59"/>
       <c r="E61" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="45">
       <c r="A62" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="59"/>
     </row>
     <row r="63" spans="1:10" ht="30">
       <c r="A63" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="59"/>
     </row>
     <row r="64" spans="1:10" ht="30">
       <c r="A64" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="59"/>
     </row>
     <row r="65" spans="1:10" ht="30">
       <c r="A65" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="59"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B66" s="65"/>
       <c r="C66" s="65"/>
@@ -28695,44 +28764,44 @@
     </row>
     <row r="67" spans="1:10" ht="30">
       <c r="A67" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B67" s="67"/>
       <c r="C67" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D67" s="59"/>
       <c r="E67" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30">
       <c r="A68" s="60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="59"/>
     </row>
     <row r="69" spans="1:10" ht="30">
       <c r="A69" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="59"/>
     </row>
     <row r="70" spans="1:10" ht="45">
       <c r="A70" s="60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="59"/>
     </row>
     <row r="71" spans="1:10" ht="45">
       <c r="A71" s="60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D71" s="59"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B72" s="65"/>
       <c r="C72" s="65"/>
@@ -28746,44 +28815,44 @@
     </row>
     <row r="73" spans="1:10" ht="30">
       <c r="A73" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" s="67"/>
       <c r="C73" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D73" s="59"/>
       <c r="E73" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30">
       <c r="A74" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74" s="59"/>
     </row>
     <row r="75" spans="1:10" ht="30">
       <c r="A75" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D75" s="59"/>
     </row>
     <row r="76" spans="1:10" ht="30">
       <c r="A76" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D76" s="59"/>
     </row>
     <row r="77" spans="1:10" ht="45">
       <c r="A77" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D77" s="59"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B78" s="65"/>
       <c r="C78" s="65"/>
@@ -28797,44 +28866,44 @@
     </row>
     <row r="79" spans="1:10" ht="30">
       <c r="A79" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B79" s="67"/>
       <c r="C79" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D79" s="59"/>
       <c r="E79" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="30">
       <c r="A80" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D80" s="59"/>
     </row>
     <row r="81" spans="1:10" ht="30">
       <c r="A81" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D81" s="59"/>
     </row>
     <row r="82" spans="1:10" ht="30">
       <c r="A82" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D82" s="59"/>
     </row>
     <row r="83" spans="1:10" ht="45">
       <c r="A83" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D83" s="59"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B84" s="65"/>
       <c r="C84" s="65"/>
@@ -28848,44 +28917,44 @@
     </row>
     <row r="85" spans="1:10" ht="30">
       <c r="A85" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B85" s="67"/>
       <c r="C85" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D85" s="59"/>
       <c r="E85" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30">
       <c r="A86" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D86" s="59"/>
     </row>
     <row r="87" spans="1:10" ht="15">
       <c r="A87" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D87" s="59"/>
     </row>
     <row r="88" spans="1:10" ht="30">
       <c r="A88" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D88" s="59"/>
     </row>
     <row r="89" spans="1:10" ht="45">
       <c r="A89" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D89" s="59"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
@@ -28899,44 +28968,44 @@
     </row>
     <row r="91" spans="1:10" ht="45">
       <c r="A91" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B91" s="67"/>
       <c r="C91" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D91" s="59"/>
       <c r="E91" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30">
       <c r="A92" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D92" s="59"/>
     </row>
     <row r="93" spans="1:10" ht="15">
       <c r="A93" s="66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D93" s="59"/>
     </row>
     <row r="94" spans="1:10" ht="45">
       <c r="A94" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D94" s="59"/>
     </row>
     <row r="95" spans="1:10" ht="30">
       <c r="A95" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D95" s="59"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B96" s="65"/>
       <c r="C96" s="65"/>
@@ -28950,44 +29019,44 @@
     </row>
     <row r="97" spans="1:10" ht="45">
       <c r="A97" s="60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B97" s="67"/>
       <c r="C97" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D97" s="59"/>
       <c r="E97" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="30">
       <c r="A98" s="66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D98" s="59"/>
     </row>
     <row r="99" spans="1:10" ht="30">
       <c r="A99" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D99" s="59"/>
     </row>
     <row r="100" spans="1:10" ht="30">
       <c r="A100" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D100" s="59"/>
     </row>
     <row r="101" spans="1:10" ht="45">
       <c r="A101" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D101" s="59"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B102" s="65"/>
       <c r="C102" s="65"/>
@@ -29001,44 +29070,44 @@
     </row>
     <row r="103" spans="1:10" ht="45">
       <c r="A103" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B103" s="67"/>
       <c r="C103" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D103" s="59"/>
       <c r="E103" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="30">
       <c r="A104" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D104" s="59"/>
     </row>
     <row r="105" spans="1:10" ht="30">
       <c r="A105" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D105" s="59"/>
     </row>
     <row r="106" spans="1:10" ht="30">
       <c r="A106" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D106" s="59"/>
     </row>
     <row r="107" spans="1:10" ht="45">
       <c r="A107" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D107" s="59"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
@@ -29052,38 +29121,38 @@
     </row>
     <row r="109" spans="1:10" ht="30">
       <c r="A109" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B109" s="67"/>
       <c r="C109" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D109" s="57"/>
       <c r="E109" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="30">
       <c r="A110" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D110" s="57"/>
     </row>
     <row r="111" spans="1:10" ht="30">
       <c r="A111" s="69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D111" s="57"/>
     </row>
     <row r="112" spans="1:10" ht="30">
       <c r="A112" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D112" s="57"/>
     </row>
     <row r="113" spans="1:4" ht="45">
       <c r="A113" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113" s="57"/>
     </row>
@@ -29236,27 +29305,27 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
@@ -29275,7 +29344,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" s="39">
         <f>COUNTIF('Step 4A - one UC'!D6:D108, "y")</f>
@@ -29294,7 +29363,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C10" s="39">
         <f>SUM('Step 4A - one UC'!D:D)</f>
@@ -29313,7 +29382,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" s="39">
         <f>C9*5*5</f>
@@ -29332,7 +29401,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C12" s="72" t="e">
         <f>(C10/C11)*100</f>
@@ -29357,7 +29426,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="72"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="12.75">
       <c r="B14" s="57">
         <v>100</v>
       </c>
@@ -29366,60 +29435,60 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="12.75">
       <c r="C15" s="26"/>
       <c r="E15" s="26"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="12.75">
       <c r="C16" s="74"/>
       <c r="E16" s="74"/>
       <c r="G16" s="74"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="12.75">
       <c r="C17" s="74"/>
       <c r="E17" s="74"/>
       <c r="G17" s="74"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="12.75">
       <c r="C18" s="74"/>
       <c r="E18" s="74"/>
       <c r="G18" s="74"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" s="74"/>
       <c r="E19" s="74"/>
       <c r="G19" s="74"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="12.75">
       <c r="C20" s="74"/>
       <c r="E20" s="74"/>
       <c r="G20" s="74"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="12.75">
       <c r="C21" s="74"/>
       <c r="E21" s="74"/>
       <c r="G21" s="74"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="12.75">
       <c r="C22" s="74"/>
       <c r="E22" s="74"/>
       <c r="G22" s="74"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="12.75">
       <c r="C23" s="74"/>
       <c r="E23" s="74"/>
       <c r="G23" s="74"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="12.75">
       <c r="C24" s="75"/>
       <c r="E24" s="75"/>
       <c r="G24" s="75"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="12.75">
       <c r="B25" s="53">
         <v>0</v>
       </c>
@@ -29429,7 +29498,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="C27" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -29601,7 +29670,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -29618,7 +29687,7 @@
   <dimension ref="A1:E1012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -29700,8 +29769,8 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="47.25" customHeight="1">
-      <c r="B9" s="77" t="s">
-        <v>18</v>
+      <c r="B9" s="89" t="s">
+        <v>251</v>
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="78"/>
@@ -29709,26 +29778,34 @@
     </row>
     <row r="10" spans="1:5" ht="36">
       <c r="A10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="32.25" customHeight="1">
@@ -29740,40 +29817,48 @@
     </row>
     <row r="13" spans="1:5" ht="45">
       <c r="A13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="35.25" customHeight="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="66" customHeight="1">
+      <c r="B14" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="90" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1"/>
@@ -32652,7 +32737,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -32674,7 +32759,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -32696,7 +32781,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -32718,7 +32803,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -32734,7 +32819,7 @@
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -32756,7 +32841,7 @@
     </row>
     <row r="2" spans="1:27" ht="18">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -32814,7 +32899,7 @@
     </row>
     <row r="6" spans="1:27" ht="18">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -32836,9 +32921,9 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="12.75">
+    <row r="9" spans="1:27" ht="42" customHeight="1">
       <c r="B9" s="77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="78"/>
@@ -32868,7 +32953,7 @@
     </row>
     <row r="10" spans="1:27" ht="36">
       <c r="A10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -32878,16 +32963,16 @@
     <row r="11" spans="1:27" ht="15">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="32.25" customHeight="1">
@@ -32899,19 +32984,19 @@
     </row>
     <row r="13" spans="1:27" ht="45">
       <c r="A13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="35.25" customHeight="1">
@@ -32923,16 +33008,16 @@
     <row r="15" spans="1:27" ht="15">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="55" spans="5:5" ht="12.75">
@@ -35826,7 +35911,7 @@
     </row>
     <row r="2" spans="1:27" ht="18">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -35884,7 +35969,7 @@
     </row>
     <row r="6" spans="1:27" ht="18">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -35908,7 +35993,7 @@
     </row>
     <row r="9" spans="1:27" ht="12.75">
       <c r="B9" s="77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="78"/>
@@ -35938,7 +36023,7 @@
     </row>
     <row r="10" spans="1:27" ht="36">
       <c r="A10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -35948,16 +36033,16 @@
     <row r="11" spans="1:27" ht="15">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="32.25" customHeight="1">
@@ -35969,19 +36054,19 @@
     </row>
     <row r="13" spans="1:27" ht="45">
       <c r="A13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="35.25" customHeight="1">
@@ -35993,16 +36078,16 @@
     <row r="15" spans="1:27" ht="15">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="55" spans="5:5" ht="12.75">
@@ -38896,7 +38981,7 @@
     </row>
     <row r="2" spans="1:27" ht="18">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -38954,7 +39039,7 @@
     </row>
     <row r="6" spans="1:27" ht="18">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -38978,7 +39063,7 @@
     </row>
     <row r="9" spans="1:27" ht="12.75">
       <c r="B9" s="77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="78"/>
@@ -39008,7 +39093,7 @@
     </row>
     <row r="10" spans="1:27" ht="36">
       <c r="A10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -39018,16 +39103,16 @@
     <row r="11" spans="1:27" ht="15">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="32.25" customHeight="1">
@@ -39039,19 +39124,19 @@
     </row>
     <row r="13" spans="1:27" ht="45">
       <c r="A13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="35.25" customHeight="1">
@@ -39063,16 +39148,16 @@
     <row r="15" spans="1:27" ht="15">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="55" spans="5:5" ht="12.75">
@@ -41966,7 +42051,7 @@
     </row>
     <row r="2" spans="1:27" ht="18">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -42024,7 +42109,7 @@
     </row>
     <row r="6" spans="1:27" ht="18">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -42048,7 +42133,7 @@
     </row>
     <row r="9" spans="1:27" ht="12.75">
       <c r="B9" s="77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="78"/>
@@ -42078,7 +42163,7 @@
     </row>
     <row r="10" spans="1:27" ht="36">
       <c r="A10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -42088,16 +42173,16 @@
     <row r="11" spans="1:27" ht="15">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="32.25" customHeight="1">
@@ -42109,19 +42194,19 @@
     </row>
     <row r="13" spans="1:27" ht="45">
       <c r="A13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="35.25" customHeight="1">
@@ -42133,16 +42218,16 @@
     <row r="15" spans="1:27" ht="15">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="56" spans="5:5" ht="12.75">
@@ -45014,7 +45099,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -45027,136 +45112,136 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="26"/>
       <c r="C7" s="79" t="str">
         <f>'Step 1A - UC 1'!B9</f>
-        <v>(Type Your Use Case 1 Short Name Here)</v>
+        <v>(Quality Control with Computer Vision )</v>
       </c>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="28">
+        <v>54</v>
+      </c>
+      <c r="C8" s="28" t="str">
         <f>'Step 1A - UC 1'!B14</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="28">
+        <v>The entire dataset will be explored instead of random sample</v>
+      </c>
+      <c r="D8" s="28" t="str">
         <f>'Step 1A - UC 1'!C14</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="28">
+        <v>The devices will be checked using CV to check if it is defective or not</v>
+      </c>
+      <c r="E8" s="28" t="str">
         <f>'Step 1A - UC 1'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="28">
+        <v xml:space="preserve">if number of defective devices &gt; threshold </v>
+      </c>
+      <c r="F8" s="28" t="str">
         <f>'Step 1A - UC 1'!E14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>stop machine /line. The accuracy if very hight the machine/line will be stopped only if there are defectives</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15">
       <c r="B9" s="29"/>
       <c r="C9" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:6" ht="15">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15">
       <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>57</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15">
       <c r="C14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="C15" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="33"/>
+    </row>
+    <row r="17" spans="2:3" ht="15">
+      <c r="B17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="32" t="s">
+    </row>
+    <row r="18" spans="2:3" ht="15">
+      <c r="C18" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="C18" s="32" t="s">
+    <row r="19" spans="2:3" ht="15">
+      <c r="C19" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="32" t="s">
+    <row r="20" spans="2:3" ht="15">
+      <c r="C20" s="32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="32" t="s">
+    <row r="21" spans="2:3" ht="15">
+      <c r="C21" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="C21" s="32" t="s">
+    <row r="22" spans="2:3" ht="15">
+      <c r="C22" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="C22" s="32" t="s">
+    <row r="23" spans="2:3" ht="15">
+      <c r="C23" s="32" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="C23" s="32" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -45188,27 +45273,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -45221,9 +45306,9 @@
       <c r="E7" s="80"/>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="28">
         <f>'Step 1A - UC 2'!B14</f>
@@ -45242,82 +45327,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15">
       <c r="B9" s="29"/>
       <c r="C9" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:6" ht="15">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15">
       <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>57</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15">
       <c r="C14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="C15" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="33"/>
+    </row>
+    <row r="17" spans="2:3" ht="15">
+      <c r="B17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="32" t="s">
+    </row>
+    <row r="18" spans="2:3" ht="15">
+      <c r="C18" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="C18" s="32" t="s">
+    <row r="19" spans="2:3" ht="15">
+      <c r="C19" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="32" t="s">
+    <row r="20" spans="2:3" ht="15">
+      <c r="C20" s="32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="32" t="s">
+    <row r="21" spans="2:3" ht="15">
+      <c r="C21" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="C21" s="32" t="s">
+    <row r="22" spans="2:3" ht="15">
+      <c r="C22" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="C22" s="32" t="s">
+    <row r="23" spans="2:3" ht="15">
+      <c r="C23" s="32" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="C23" s="32" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/01_project-steps-delivering-an-ml-ai-strategy.xlsx
+++ b/01_project-steps-delivering-an-ml-ai-strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveSysncOsa\OneDrive - Taibah University\DropBox\1440-1441 Second Semester\Udacity Reviewer\My own projects\ML Project\Github Repo\Delivering-an-ML-AI-Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B3A62E8-91C6-4078-98FB-4FB0A7CD2F29}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECTIONS" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="284">
   <si>
     <t>Step 0: Choose Your Business Context</t>
   </si>
@@ -211,19 +211,10 @@
     <t xml:space="preserve">    b) For this Use Case 2, complete this storyboard in cells B10 - E10, and B13 - E13, for the setup, transformation, resolution, and result phases.</t>
   </si>
   <si>
-    <t>(Type Your Use Case 3 Short Name Here)</t>
-  </si>
-  <si>
-    <t>(Type Your Use Case 2 Short Name Here)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    a) Create a short name in cell B9, between two and five words, for your Use Case 4. Strong names will make it easy for you </t>
   </si>
   <si>
     <t xml:space="preserve">    b) For this Use Case 4, complete this storyboard in cells B10 - E10, and B13 - E13, for the setup, transformation, resolution, and result phases.</t>
-  </si>
-  <si>
-    <t>(Type Your Use Case 4 Short Name Here)</t>
   </si>
   <si>
     <t xml:space="preserve">    a) Create a short name in cell B9, between two and five words, for your Use Case 5. Strong names will make it easy for you </t>
@@ -1332,6 +1323,87 @@
   <si>
     <t xml:space="preserve">if number of defectives in the random sample  &gt; threshold </t>
   </si>
+  <si>
+    <t>(Optimal tax strategy predictor)</t>
+  </si>
+  <si>
+    <t>collecting tax codes</t>
+  </si>
+  <si>
+    <t>finding connections with organization tax policies</t>
+  </si>
+  <si>
+    <t>update policies</t>
+  </si>
+  <si>
+    <t>create tax strategy</t>
+  </si>
+  <si>
+    <t>tax codes are collected</t>
+  </si>
+  <si>
+    <t>generic predictors are used in accordance with the organization's ERP</t>
+  </si>
+  <si>
+    <t>tax codes are segmented using NLP</t>
+  </si>
+  <si>
+    <t>predict the best tax strategy</t>
+  </si>
+  <si>
+    <t>(Car Detection of Customer ID)</t>
+  </si>
+  <si>
+    <t>The car preferences</t>
+  </si>
+  <si>
+    <t>The customer should change it manually</t>
+  </si>
+  <si>
+    <t>In case the customer find uncomfortable thing, he shall do it manually</t>
+  </si>
+  <si>
+    <t>Customer service may help him in changing preferences manually</t>
+  </si>
+  <si>
+    <t>car preferences are collected</t>
+  </si>
+  <si>
+    <t>we should join preferences to each corresponding customer id</t>
+  </si>
+  <si>
+    <t>Camera can detect the customer face to define the customer id</t>
+  </si>
+  <si>
+    <t>car preferences are changed automatically</t>
+  </si>
+  <si>
+    <t>(Car Maintenance Expector)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defitiancy is encountered </t>
+  </si>
+  <si>
+    <t>check each problem to see the corresponding fix plan</t>
+  </si>
+  <si>
+    <t>prepare the fix process</t>
+  </si>
+  <si>
+    <t>apply the fix process</t>
+  </si>
+  <si>
+    <t>collect data from sensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expect time of next problem occurrence </t>
+  </si>
+  <si>
+    <t>get ready to make the fix ahead of time</t>
+  </si>
+  <si>
+    <t>at the detected time, apply the fix immediately</t>
+  </si>
 </sst>
 </file>
 
@@ -1950,10 +2022,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1966,16 +2048,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3104,58 +3176,58 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="26"/>
-      <c r="C7" s="82" t="str">
+      <c r="C7" s="88" t="str">
         <f>'Step 1A - UC 3'!B9</f>
-        <v>(Type Your Use Case 3 Short Name Here)</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
+        <v>(Car Detection of Customer ID)</v>
+      </c>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="28">
+        <v>68</v>
+      </c>
+      <c r="C8" s="28" t="str">
         <f>'Step 1A - UC 3'!B14</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="28">
+        <v>car preferences are collected</v>
+      </c>
+      <c r="D8" s="28" t="str">
         <f>'Step 1A - UC 3'!C14</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="28">
+        <v>we should join preferences to each corresponding customer id</v>
+      </c>
+      <c r="E8" s="28" t="str">
         <f>'Step 1A - UC 3'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="28">
+        <v>Camera can detect the customer face to define the customer id</v>
+      </c>
+      <c r="F8" s="28" t="str">
         <f>'Step 1A - UC 3'!E14</f>
-        <v>0</v>
+        <v>car preferences are changed automatically</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -3178,62 +3250,62 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="C14" s="32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="C15" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="33"/>
     </row>
     <row r="17" spans="2:3" ht="15">
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15">
       <c r="C18" s="32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15">
       <c r="C19" s="32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15">
       <c r="C20" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15">
       <c r="C21" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15">
       <c r="C22" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15">
       <c r="C23" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3265,58 +3337,58 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="26"/>
-      <c r="C7" s="82" t="str">
+      <c r="C7" s="88" t="str">
         <f>'Step 1A - UC 4'!B9</f>
-        <v>(Type Your Use Case 4 Short Name Here)</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
+        <v>(Car Maintenance Expector)</v>
+      </c>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="28">
+        <v>70</v>
+      </c>
+      <c r="C8" s="28" t="str">
         <f>'Step 1A - UC 4'!B14</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="28">
+        <v>collect data from sensors</v>
+      </c>
+      <c r="D8" s="28" t="str">
         <f>'Step 1A - UC 4'!C14</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="28">
+        <v xml:space="preserve">expect time of next problem occurrence </v>
+      </c>
+      <c r="E8" s="28" t="str">
         <f>'Step 1A - UC 4'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="28">
+        <v>get ready to make the fix ahead of time</v>
+      </c>
+      <c r="F8" s="28" t="str">
         <f>'Step 1A - UC 4'!E14</f>
-        <v>0</v>
+        <v>at the detected time, apply the fix immediately</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -3339,62 +3411,62 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="C14" s="32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="C15" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="33"/>
     </row>
     <row r="17" spans="2:3" ht="15">
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15">
       <c r="C18" s="32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15">
       <c r="C19" s="32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15">
       <c r="C20" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15">
       <c r="C21" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15">
       <c r="C22" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15">
       <c r="C23" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3426,42 +3498,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="26"/>
-      <c r="C7" s="82" t="str">
+      <c r="C7" s="88" t="str">
         <f>'Step 1A - UC 5'!B9</f>
         <v>(Type Your Use Case 5 Short Name Here)</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" s="28">
         <f>'Step 1A - UC 5'!B14</f>
@@ -3500,62 +3572,62 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="C14" s="32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="C15" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="33"/>
     </row>
     <row r="17" spans="2:3" ht="15">
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15">
       <c r="C18" s="32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15">
       <c r="C19" s="32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15">
       <c r="C20" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15">
       <c r="C21" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15">
       <c r="C22" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15">
       <c r="C23" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3586,11 +3658,11 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K1" s="39"/>
     </row>
@@ -3609,7 +3681,7 @@
         <v>The entire dataset will be explored instead of random sample</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K3" s="39"/>
     </row>
@@ -3618,7 +3690,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K4" s="45"/>
     </row>
@@ -3629,20 +3701,20 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="D6" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="D7" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" s="7"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="D8" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="7"/>
       <c r="K8" s="39"/>
@@ -3650,14 +3722,14 @@
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="D9" s="44"/>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="D10" s="44"/>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K10" s="45"/>
     </row>
@@ -3667,14 +3739,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="D12" s="44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="D13" s="44"/>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="39"/>
@@ -3682,7 +3754,7 @@
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="D14" s="44"/>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="39"/>
@@ -3690,13 +3762,13 @@
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="D15" s="44"/>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="F16" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K16" s="45"/>
     </row>
@@ -3705,14 +3777,14 @@
     </row>
     <row r="18" spans="4:11" ht="15.75" customHeight="1">
       <c r="D18" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K18" s="39"/>
     </row>
     <row r="19" spans="4:11" ht="15.75" customHeight="1">
       <c r="D19" s="44"/>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K19" s="45"/>
     </row>
@@ -3722,25 +3794,25 @@
     </row>
     <row r="21" spans="4:11" ht="15.75" customHeight="1">
       <c r="D21" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K21" s="39"/>
     </row>
     <row r="22" spans="4:11" ht="15.75" customHeight="1">
       <c r="D22" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K22" s="39"/>
     </row>
     <row r="23" spans="4:11" ht="15">
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K23" s="39"/>
     </row>
     <row r="24" spans="4:11" ht="15">
       <c r="E24" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K24" s="45"/>
     </row>
@@ -6706,30 +6778,30 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="B2" s="40" t="str">
         <f>'Step 1A - UC 2'!B9</f>
-        <v>(Type Your Use Case 2 Short Name Here)</v>
+        <v>(Optimal tax strategy predictor)</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="42">
+      <c r="B3" s="42" t="str">
         <f>'Step 1A - UC 2'!B14</f>
-        <v>0</v>
+        <v>tax codes are collected</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K3" s="39"/>
     </row>
@@ -6738,7 +6810,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K4" s="45"/>
     </row>
@@ -6749,20 +6821,20 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="D6" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="D7" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" s="7"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="D8" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="7"/>
       <c r="K8" s="39"/>
@@ -6770,14 +6842,14 @@
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="D9" s="44"/>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="D10" s="44"/>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K10" s="45"/>
     </row>
@@ -6787,14 +6859,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="D12" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="D13" s="44"/>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="39"/>
@@ -6802,7 +6874,7 @@
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="D14" s="44"/>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="39"/>
@@ -6810,13 +6882,13 @@
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="D15" s="44"/>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="F16" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K16" s="45"/>
     </row>
@@ -6825,14 +6897,14 @@
     </row>
     <row r="18" spans="4:11" ht="15.75" customHeight="1">
       <c r="D18" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K18" s="39"/>
     </row>
     <row r="19" spans="4:11" ht="15.75" customHeight="1">
       <c r="D19" s="44"/>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K19" s="45"/>
     </row>
@@ -6842,25 +6914,25 @@
     </row>
     <row r="21" spans="4:11" ht="15.75" customHeight="1">
       <c r="D21" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K21" s="39"/>
     </row>
     <row r="22" spans="4:11" ht="15.75" customHeight="1">
       <c r="D22" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K22" s="39"/>
     </row>
     <row r="23" spans="4:11" ht="15">
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K23" s="39"/>
     </row>
     <row r="24" spans="4:11" ht="15">
       <c r="E24" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K24" s="45"/>
     </row>
@@ -9826,30 +9898,30 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="B2" s="40" t="str">
         <f>'Step 1A - UC 3'!B9</f>
-        <v>(Type Your Use Case 3 Short Name Here)</v>
+        <v>(Car Detection of Customer ID)</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="42">
+      <c r="B3" s="42" t="str">
         <f>'Step 1A - UC 3'!B14</f>
-        <v>0</v>
+        <v>car preferences are collected</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K3" s="39"/>
     </row>
@@ -9858,7 +9930,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K4" s="45"/>
     </row>
@@ -9869,20 +9941,20 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="D6" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="D7" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" s="7"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="D8" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="7"/>
       <c r="K8" s="39"/>
@@ -9890,14 +9962,14 @@
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="D9" s="44"/>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="D10" s="44"/>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K10" s="45"/>
     </row>
@@ -9907,14 +9979,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="D12" s="44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="D13" s="44"/>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="39"/>
@@ -9922,7 +9994,7 @@
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="D14" s="44"/>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="39"/>
@@ -9930,13 +10002,13 @@
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="D15" s="44"/>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="F16" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K16" s="45"/>
     </row>
@@ -9945,14 +10017,14 @@
     </row>
     <row r="18" spans="4:11" ht="15.75" customHeight="1">
       <c r="D18" s="44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K18" s="39"/>
     </row>
     <row r="19" spans="4:11" ht="15.75" customHeight="1">
       <c r="D19" s="44"/>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K19" s="45"/>
     </row>
@@ -9962,25 +10034,25 @@
     </row>
     <row r="21" spans="4:11" ht="15.75" customHeight="1">
       <c r="D21" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K21" s="39"/>
     </row>
     <row r="22" spans="4:11" ht="15.75" customHeight="1">
       <c r="D22" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K22" s="39"/>
     </row>
     <row r="23" spans="4:11" ht="15">
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K23" s="39"/>
     </row>
     <row r="24" spans="4:11" ht="15">
       <c r="E24" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K24" s="45"/>
     </row>
@@ -12953,30 +13025,30 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="B2" s="40" t="str">
         <f>'Step 1A - UC 4'!B9</f>
-        <v>(Type Your Use Case 4 Short Name Here)</v>
+        <v>(Car Maintenance Expector)</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B3" s="42">
+      <c r="B3" s="42" t="str">
         <f>'Step 1A - UC 4'!B14</f>
-        <v>0</v>
+        <v>collect data from sensors</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K3" s="39"/>
     </row>
@@ -12985,7 +13057,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K4" s="45"/>
     </row>
@@ -12996,20 +13068,20 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="D6" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="D7" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" s="7"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="D8" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="7"/>
       <c r="K8" s="39"/>
@@ -13017,14 +13089,14 @@
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="D9" s="44"/>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="D10" s="44"/>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K10" s="45"/>
     </row>
@@ -13034,14 +13106,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="D12" s="44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="D13" s="44"/>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="39"/>
@@ -13049,7 +13121,7 @@
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="D14" s="44"/>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="39"/>
@@ -13057,13 +13129,13 @@
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="D15" s="44"/>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="F16" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K16" s="45"/>
     </row>
@@ -13072,14 +13144,14 @@
     </row>
     <row r="18" spans="4:11" ht="15.75" customHeight="1">
       <c r="D18" s="44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K18" s="39"/>
     </row>
     <row r="19" spans="4:11" ht="15.75" customHeight="1">
       <c r="D19" s="44"/>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K19" s="45"/>
     </row>
@@ -13089,25 +13161,25 @@
     </row>
     <row r="21" spans="4:11" ht="15.75" customHeight="1">
       <c r="D21" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K21" s="39"/>
     </row>
     <row r="22" spans="4:11" ht="15.75" customHeight="1">
       <c r="D22" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K22" s="39"/>
     </row>
     <row r="23" spans="4:11" ht="15">
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K23" s="39"/>
     </row>
     <row r="24" spans="4:11" ht="15">
       <c r="E24" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K24" s="45"/>
     </row>
@@ -16073,11 +16145,11 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K1" s="39"/>
     </row>
@@ -16096,7 +16168,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K3" s="39"/>
     </row>
@@ -16105,7 +16177,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K4" s="45"/>
     </row>
@@ -16116,20 +16188,20 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="D7" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" s="7"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="D8" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="7"/>
       <c r="K8" s="39"/>
@@ -16137,14 +16209,14 @@
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="D9" s="44"/>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="D10" s="44"/>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K10" s="45"/>
     </row>
@@ -16154,14 +16226,14 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="D12" s="44" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="D13" s="44"/>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="39"/>
@@ -16169,7 +16241,7 @@
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="D14" s="44"/>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="39"/>
@@ -16177,13 +16249,13 @@
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="D15" s="44"/>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="F16" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K16" s="45"/>
     </row>
@@ -16192,14 +16264,14 @@
     </row>
     <row r="18" spans="4:11" ht="15.75" customHeight="1">
       <c r="D18" s="44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K18" s="39"/>
     </row>
     <row r="19" spans="4:11" ht="15.75" customHeight="1">
       <c r="D19" s="44"/>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K19" s="45"/>
     </row>
@@ -16209,25 +16281,25 @@
     </row>
     <row r="21" spans="4:11" ht="15.75" customHeight="1">
       <c r="D21" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K21" s="39"/>
     </row>
     <row r="22" spans="4:11" ht="15.75" customHeight="1">
       <c r="D22" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K22" s="39"/>
     </row>
     <row r="23" spans="4:11" ht="15">
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K23" s="39"/>
     </row>
     <row r="24" spans="4:11" ht="15">
       <c r="E24" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K24" s="45"/>
     </row>
@@ -19192,20 +19264,20 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B2" s="83" t="str">
+      <c r="B2" s="89" t="str">
         <f>'Step 1A - UC 1'!B9</f>
         <v>(Quality Control with Computer Vision )</v>
       </c>
-      <c r="C2" s="84"/>
+      <c r="C2" s="90"/>
       <c r="E2" s="44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
@@ -19230,7 +19302,7 @@
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -19238,28 +19310,28 @@
       <c r="C5" s="52"/>
       <c r="E5" s="51"/>
       <c r="F5" s="44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="E6" s="51"/>
       <c r="F6" s="44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="E7" s="51"/>
       <c r="F7" s="44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="E8" s="51"/>
       <c r="F8" s="44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
@@ -19292,30 +19364,30 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B2" s="83" t="str">
+      <c r="B2" s="89" t="str">
         <f>'Step 1A - UC 2'!B9</f>
-        <v>(Type Your Use Case 2 Short Name Here)</v>
-      </c>
-      <c r="C2" s="84"/>
+        <v>(Optimal tax strategy predictor)</v>
+      </c>
+      <c r="C2" s="90"/>
       <c r="E2" s="44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B3" s="48">
+      <c r="B3" s="48" t="str">
         <f>'Step 1A - UC 2'!C14</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="48">
+        <v>tax codes are segmented using NLP</v>
+      </c>
+      <c r="C3" s="48" t="str">
         <f>'Step 1A - UC 2'!D14</f>
-        <v>0</v>
+        <v>generic predictors are used in accordance with the organization's ERP</v>
       </c>
       <c r="E3" s="49"/>
     </row>
@@ -19330,7 +19402,7 @@
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -19344,28 +19416,28 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="E6" s="45"/>
       <c r="F6" s="44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="E7" s="45"/>
       <c r="F7" s="44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="E8" s="51"/>
       <c r="F8" s="44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
@@ -19430,15 +19502,15 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="86"/>
-      <c r="C6" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="87" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="B7" s="3"/>
@@ -19506,30 +19578,30 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B2" s="83" t="str">
+      <c r="B2" s="89" t="str">
         <f>'Step 1A - UC 3'!B9</f>
-        <v>(Type Your Use Case 3 Short Name Here)</v>
-      </c>
-      <c r="C2" s="84"/>
+        <v>(Car Detection of Customer ID)</v>
+      </c>
+      <c r="C2" s="90"/>
       <c r="E2" s="44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B3" s="48">
+      <c r="B3" s="48" t="str">
         <f>'Step 1A - UC 3'!C14</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="48">
+        <v>we should join preferences to each corresponding customer id</v>
+      </c>
+      <c r="C3" s="48" t="str">
         <f>'Step 1A - UC 3'!D14</f>
-        <v>0</v>
+        <v>Camera can detect the customer face to define the customer id</v>
       </c>
       <c r="E3" s="49"/>
     </row>
@@ -19544,7 +19616,7 @@
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -19558,28 +19630,28 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="E6" s="45"/>
       <c r="F6" s="44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="E7" s="45"/>
       <c r="F7" s="44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="E8" s="51"/>
       <c r="F8" s="44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
@@ -19612,30 +19684,30 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B2" s="83" t="str">
+      <c r="B2" s="89" t="str">
         <f>'Step 1A - UC 4'!B9</f>
-        <v>(Type Your Use Case 4 Short Name Here)</v>
-      </c>
-      <c r="C2" s="84"/>
+        <v>(Car Maintenance Expector)</v>
+      </c>
+      <c r="C2" s="90"/>
       <c r="E2" s="44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B3" s="48">
+      <c r="B3" s="48" t="str">
         <f>'Step 1A - UC 4'!C14</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="48">
+        <v xml:space="preserve">expect time of next problem occurrence </v>
+      </c>
+      <c r="C3" s="48" t="str">
         <f>'Step 1A - UC 4'!D14</f>
-        <v>0</v>
+        <v>get ready to make the fix ahead of time</v>
       </c>
       <c r="E3" s="49"/>
     </row>
@@ -19650,7 +19722,7 @@
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -19664,28 +19736,28 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="E6" s="45"/>
       <c r="F6" s="44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="E7" s="45"/>
       <c r="F7" s="44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="E8" s="51"/>
       <c r="F8" s="44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
@@ -19718,20 +19790,20 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B2" s="83" t="str">
+      <c r="B2" s="89" t="str">
         <f>'Step 1A - UC 5'!B9</f>
         <v>(Type Your Use Case 5 Short Name Here)</v>
       </c>
-      <c r="C2" s="84"/>
+      <c r="C2" s="90"/>
       <c r="E2" s="44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
@@ -19756,7 +19828,7 @@
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
@@ -19770,28 +19842,28 @@
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="E6" s="45"/>
       <c r="F6" s="44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="E7" s="45"/>
       <c r="F7" s="44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="E8" s="51"/>
       <c r="F8" s="44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
@@ -19819,7 +19891,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -19841,7 +19913,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -19867,7 +19939,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -19899,7 +19971,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -19931,7 +20003,7 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -19945,7 +20017,7 @@
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="A5" s="61" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -19953,7 +20025,7 @@
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -19985,20 +20057,20 @@
     </row>
     <row r="7" spans="1:28" ht="30">
       <c r="A7" s="66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D7" s="57"/>
       <c r="E7" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15">
       <c r="A8" s="66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
@@ -20006,7 +20078,7 @@
     </row>
     <row r="9" spans="1:28" ht="30">
       <c r="A9" s="60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -20014,7 +20086,7 @@
     </row>
     <row r="10" spans="1:28" ht="45">
       <c r="A10" s="60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
@@ -20022,7 +20094,7 @@
     </row>
     <row r="11" spans="1:28" ht="30">
       <c r="A11" s="60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -20030,7 +20102,7 @@
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1">
       <c r="A12" s="62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -20062,44 +20134,44 @@
     </row>
     <row r="13" spans="1:28" ht="30">
       <c r="A13" s="66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" s="67"/>
       <c r="C13" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15">
       <c r="A14" s="66" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:28" ht="30">
       <c r="A15" s="60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" s="57"/>
     </row>
     <row r="16" spans="1:28" ht="45">
       <c r="A16" s="60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D16" s="57"/>
     </row>
     <row r="17" spans="1:28" ht="30">
       <c r="A17" s="60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D17" s="57"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1">
       <c r="A18" s="62" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -20131,44 +20203,44 @@
     </row>
     <row r="19" spans="1:28" ht="30">
       <c r="A19" s="66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="30">
       <c r="A20" s="60" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D20" s="59"/>
     </row>
     <row r="21" spans="1:28" ht="15">
       <c r="A21" s="60" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D21" s="59"/>
     </row>
     <row r="22" spans="1:28" ht="30">
       <c r="A22" s="66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D22" s="59"/>
     </row>
     <row r="23" spans="1:28" ht="45">
       <c r="A23" s="66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D23" s="59"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1">
       <c r="A24" s="62" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
@@ -20200,44 +20272,44 @@
     </row>
     <row r="25" spans="1:28" ht="25.5">
       <c r="A25" s="60" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B25" s="67"/>
       <c r="C25" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="30">
       <c r="A26" s="60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D26" s="59"/>
     </row>
     <row r="27" spans="1:28" ht="30">
       <c r="A27" s="60" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D27" s="59"/>
     </row>
     <row r="28" spans="1:28" ht="30">
       <c r="A28" s="66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D28" s="59"/>
     </row>
     <row r="29" spans="1:28" ht="45">
       <c r="A29" s="66" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D29" s="59"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1">
       <c r="A30" s="62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
@@ -20269,44 +20341,44 @@
     </row>
     <row r="31" spans="1:28" ht="30">
       <c r="A31" s="60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="30">
       <c r="A32" s="60" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:28" ht="45">
       <c r="A33" s="66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D33" s="59"/>
     </row>
     <row r="34" spans="1:28" ht="30">
       <c r="A34" s="60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D34" s="59"/>
     </row>
     <row r="35" spans="1:28" ht="30">
       <c r="A35" s="60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1">
       <c r="A36" s="62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -20338,44 +20410,44 @@
     </row>
     <row r="37" spans="1:28" ht="45">
       <c r="A37" s="66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B37" s="67"/>
       <c r="C37" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="30">
       <c r="A38" s="66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D38" s="59"/>
     </row>
     <row r="39" spans="1:28" ht="45">
       <c r="A39" s="60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D39" s="59"/>
     </row>
     <row r="40" spans="1:28" ht="45">
       <c r="A40" s="60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D40" s="59"/>
     </row>
     <row r="41" spans="1:28" ht="45">
       <c r="A41" s="66" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D41" s="59"/>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="62" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B42" s="65"/>
       <c r="C42" s="65"/>
@@ -20407,44 +20479,44 @@
     </row>
     <row r="43" spans="1:28" ht="30">
       <c r="A43" s="60" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B43" s="67"/>
       <c r="C43" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="15">
       <c r="A44" s="66" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D44" s="59"/>
     </row>
     <row r="45" spans="1:28" ht="30">
       <c r="A45" s="66" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D45" s="59"/>
     </row>
     <row r="46" spans="1:28" ht="45">
       <c r="A46" s="60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:28" ht="30">
       <c r="A47" s="60" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" s="59"/>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B48" s="65"/>
       <c r="C48" s="65"/>
@@ -20476,44 +20548,44 @@
     </row>
     <row r="49" spans="1:28" ht="30">
       <c r="A49" s="60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B49" s="67"/>
       <c r="C49" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D49" s="57"/>
       <c r="E49" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="30">
       <c r="A50" s="60" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D50" s="57"/>
     </row>
     <row r="51" spans="1:28" ht="30">
       <c r="A51" s="66" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D51" s="57"/>
     </row>
     <row r="52" spans="1:28" ht="45">
       <c r="A52" s="66" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D52" s="57"/>
     </row>
     <row r="53" spans="1:28" ht="45">
       <c r="A53" s="66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="62" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B54" s="65"/>
       <c r="C54" s="65"/>
@@ -20545,44 +20617,44 @@
     </row>
     <row r="55" spans="1:28" ht="30">
       <c r="A55" s="60" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B55" s="67"/>
       <c r="C55" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D55" s="57"/>
       <c r="E55" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="30">
       <c r="A56" s="66" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D56" s="57"/>
     </row>
     <row r="57" spans="1:28" ht="30">
       <c r="A57" s="66" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D57" s="57"/>
     </row>
     <row r="58" spans="1:28" ht="45">
       <c r="A58" s="60" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D58" s="57"/>
     </row>
     <row r="59" spans="1:28" ht="30">
       <c r="A59" s="60" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D59" s="57"/>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B60" s="65"/>
       <c r="C60" s="65"/>
@@ -20614,44 +20686,44 @@
     </row>
     <row r="61" spans="1:28" ht="30">
       <c r="A61" s="66" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B61" s="67"/>
       <c r="C61" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D61" s="59"/>
       <c r="E61" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="45">
       <c r="A62" s="60" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="59"/>
     </row>
     <row r="63" spans="1:28" ht="30">
       <c r="A63" s="60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="59"/>
     </row>
     <row r="64" spans="1:28" ht="30">
       <c r="A64" s="60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="59"/>
     </row>
     <row r="65" spans="1:28" ht="30">
       <c r="A65" s="60" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" s="59"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B66" s="65"/>
       <c r="C66" s="65"/>
@@ -20683,44 +20755,44 @@
     </row>
     <row r="67" spans="1:28" ht="30">
       <c r="A67" s="60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B67" s="67"/>
       <c r="C67" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D67" s="59"/>
       <c r="E67" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="30">
       <c r="A68" s="60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D68" s="59"/>
     </row>
     <row r="69" spans="1:28" ht="30">
       <c r="A69" s="66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D69" s="59"/>
     </row>
     <row r="70" spans="1:28" ht="45">
       <c r="A70" s="60" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D70" s="59"/>
     </row>
     <row r="71" spans="1:28" ht="45">
       <c r="A71" s="60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D71" s="59"/>
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="62" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B72" s="65"/>
       <c r="C72" s="65"/>
@@ -20752,44 +20824,44 @@
     </row>
     <row r="73" spans="1:28" ht="30">
       <c r="A73" s="60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B73" s="67"/>
       <c r="C73" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D73" s="59"/>
       <c r="E73" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="30">
       <c r="A74" s="66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D74" s="59"/>
     </row>
     <row r="75" spans="1:28" ht="30">
       <c r="A75" s="60" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D75" s="59"/>
     </row>
     <row r="76" spans="1:28" ht="30">
       <c r="A76" s="60" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D76" s="59"/>
     </row>
     <row r="77" spans="1:28" ht="45">
       <c r="A77" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D77" s="59"/>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="62" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B78" s="65"/>
       <c r="C78" s="65"/>
@@ -20821,44 +20893,44 @@
     </row>
     <row r="79" spans="1:28" ht="30">
       <c r="A79" s="60" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B79" s="67"/>
       <c r="C79" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D79" s="59"/>
       <c r="E79" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="30">
       <c r="A80" s="66" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D80" s="59"/>
     </row>
     <row r="81" spans="1:28" ht="30">
       <c r="A81" s="60" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D81" s="59"/>
     </row>
     <row r="82" spans="1:28" ht="30">
       <c r="A82" s="60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D82" s="59"/>
     </row>
     <row r="83" spans="1:28" ht="45">
       <c r="A83" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D83" s="59"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="62" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B84" s="65"/>
       <c r="C84" s="65"/>
@@ -20890,44 +20962,44 @@
     </row>
     <row r="85" spans="1:28" ht="30">
       <c r="A85" s="66" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B85" s="67"/>
       <c r="C85" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D85" s="59"/>
       <c r="E85" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="30">
       <c r="A86" s="66" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D86" s="59"/>
     </row>
     <row r="87" spans="1:28" ht="15">
       <c r="A87" s="66" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D87" s="59"/>
     </row>
     <row r="88" spans="1:28" ht="30">
       <c r="A88" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D88" s="59"/>
     </row>
     <row r="89" spans="1:28" ht="45">
       <c r="A89" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D89" s="59"/>
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="62" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
@@ -20959,44 +21031,44 @@
     </row>
     <row r="91" spans="1:28" ht="45">
       <c r="A91" s="60" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B91" s="67"/>
       <c r="C91" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D91" s="59"/>
       <c r="E91" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="30">
       <c r="A92" s="60" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D92" s="59"/>
     </row>
     <row r="93" spans="1:28" ht="15">
       <c r="A93" s="66" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D93" s="59"/>
     </row>
     <row r="94" spans="1:28" ht="45">
       <c r="A94" s="60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D94" s="59"/>
     </row>
     <row r="95" spans="1:28" ht="30">
       <c r="A95" s="60" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D95" s="59"/>
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B96" s="65"/>
       <c r="C96" s="65"/>
@@ -21028,44 +21100,44 @@
     </row>
     <row r="97" spans="1:28" ht="45">
       <c r="A97" s="60" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B97" s="67"/>
       <c r="C97" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D97" s="59"/>
       <c r="E97" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="30">
       <c r="A98" s="66" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D98" s="59"/>
     </row>
     <row r="99" spans="1:28" ht="30">
       <c r="A99" s="60" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D99" s="59"/>
     </row>
     <row r="100" spans="1:28" ht="30">
       <c r="A100" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D100" s="59"/>
     </row>
     <row r="101" spans="1:28" ht="45">
       <c r="A101" s="60" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D101" s="59"/>
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="62" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B102" s="65"/>
       <c r="C102" s="65"/>
@@ -21097,44 +21169,44 @@
     </row>
     <row r="103" spans="1:28" ht="45">
       <c r="A103" s="66" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B103" s="67"/>
       <c r="C103" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D103" s="59"/>
       <c r="E103" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="30">
       <c r="A104" s="60" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D104" s="59"/>
     </row>
     <row r="105" spans="1:28" ht="30">
       <c r="A105" s="66" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D105" s="59"/>
     </row>
     <row r="106" spans="1:28" ht="30">
       <c r="A106" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D106" s="59"/>
     </row>
     <row r="107" spans="1:28" ht="45">
       <c r="A107" s="60" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D107" s="59"/>
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="68" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
@@ -21166,38 +21238,38 @@
     </row>
     <row r="109" spans="1:28" ht="30">
       <c r="A109" s="69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B109" s="67"/>
       <c r="C109" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D109" s="57"/>
       <c r="E109" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="30">
       <c r="A110" s="69" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D110" s="57"/>
     </row>
     <row r="111" spans="1:28" ht="30">
       <c r="A111" s="69" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D111" s="57"/>
     </row>
     <row r="112" spans="1:28" ht="30">
       <c r="A112" s="69" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D112" s="57"/>
     </row>
     <row r="113" spans="1:4" ht="45">
       <c r="A113" s="69" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D113" s="57"/>
     </row>
@@ -24019,7 +24091,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -24051,7 +24123,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -24083,7 +24155,7 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -24097,7 +24169,7 @@
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="A5" s="61" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -24105,7 +24177,7 @@
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -24137,22 +24209,22 @@
     </row>
     <row r="7" spans="1:28" ht="30">
       <c r="A7" s="66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D7" s="57">
         <v>2</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15">
       <c r="A8" s="66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
@@ -24160,7 +24232,7 @@
     </row>
     <row r="9" spans="1:28" ht="30">
       <c r="A9" s="60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -24168,7 +24240,7 @@
     </row>
     <row r="10" spans="1:28" ht="45">
       <c r="A10" s="60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
@@ -24176,7 +24248,7 @@
     </row>
     <row r="11" spans="1:28" ht="30">
       <c r="A11" s="60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -24184,7 +24256,7 @@
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1">
       <c r="A12" s="62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -24216,44 +24288,44 @@
     </row>
     <row r="13" spans="1:28" ht="30">
       <c r="A13" s="66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" s="67"/>
       <c r="C13" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15">
       <c r="A14" s="66" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:28" ht="30">
       <c r="A15" s="60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" s="57"/>
     </row>
     <row r="16" spans="1:28" ht="45">
       <c r="A16" s="60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D16" s="57"/>
     </row>
     <row r="17" spans="1:28" ht="30">
       <c r="A17" s="60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D17" s="57"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1">
       <c r="A18" s="62" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -24285,44 +24357,44 @@
     </row>
     <row r="19" spans="1:28" ht="30">
       <c r="A19" s="66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="30">
       <c r="A20" s="60" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D20" s="59"/>
     </row>
     <row r="21" spans="1:28" ht="15">
       <c r="A21" s="60" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D21" s="59"/>
     </row>
     <row r="22" spans="1:28" ht="30">
       <c r="A22" s="66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D22" s="59"/>
     </row>
     <row r="23" spans="1:28" ht="45">
       <c r="A23" s="66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D23" s="59"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1">
       <c r="A24" s="62" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
@@ -24354,44 +24426,44 @@
     </row>
     <row r="25" spans="1:28" ht="25.5">
       <c r="A25" s="60" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B25" s="67"/>
       <c r="C25" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="30">
       <c r="A26" s="60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D26" s="59"/>
     </row>
     <row r="27" spans="1:28" ht="30">
       <c r="A27" s="60" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D27" s="59"/>
     </row>
     <row r="28" spans="1:28" ht="30">
       <c r="A28" s="66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D28" s="59"/>
     </row>
     <row r="29" spans="1:28" ht="45">
       <c r="A29" s="66" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D29" s="59"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1">
       <c r="A30" s="62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
@@ -24423,44 +24495,44 @@
     </row>
     <row r="31" spans="1:28" ht="30">
       <c r="A31" s="60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="30">
       <c r="A32" s="60" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:28" ht="45">
       <c r="A33" s="66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D33" s="59"/>
     </row>
     <row r="34" spans="1:28" ht="30">
       <c r="A34" s="60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D34" s="59"/>
     </row>
     <row r="35" spans="1:28" ht="30">
       <c r="A35" s="60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1">
       <c r="A36" s="62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -24492,44 +24564,44 @@
     </row>
     <row r="37" spans="1:28" ht="45">
       <c r="A37" s="66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B37" s="67"/>
       <c r="C37" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="30">
       <c r="A38" s="66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D38" s="59"/>
     </row>
     <row r="39" spans="1:28" ht="45">
       <c r="A39" s="60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D39" s="59"/>
     </row>
     <row r="40" spans="1:28" ht="45">
       <c r="A40" s="60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D40" s="59"/>
     </row>
     <row r="41" spans="1:28" ht="45">
       <c r="A41" s="66" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D41" s="59"/>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="62" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B42" s="65"/>
       <c r="C42" s="65"/>
@@ -24561,44 +24633,44 @@
     </row>
     <row r="43" spans="1:28" ht="30">
       <c r="A43" s="60" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B43" s="67"/>
       <c r="C43" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="15">
       <c r="A44" s="66" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D44" s="59"/>
     </row>
     <row r="45" spans="1:28" ht="30">
       <c r="A45" s="66" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D45" s="59"/>
     </row>
     <row r="46" spans="1:28" ht="45">
       <c r="A46" s="60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:28" ht="30">
       <c r="A47" s="60" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" s="59"/>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B48" s="65"/>
       <c r="C48" s="65"/>
@@ -24630,22 +24702,22 @@
     </row>
     <row r="49" spans="1:28" ht="30">
       <c r="A49" s="60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B49" s="67"/>
       <c r="C49" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D49" s="57">
         <v>5</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="30">
       <c r="A50" s="60" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D50" s="57">
         <v>4</v>
@@ -24653,7 +24725,7 @@
     </row>
     <row r="51" spans="1:28" ht="30">
       <c r="A51" s="66" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D51" s="57">
         <v>4</v>
@@ -24661,7 +24733,7 @@
     </row>
     <row r="52" spans="1:28" ht="45">
       <c r="A52" s="66" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D52" s="57">
         <v>5</v>
@@ -24669,7 +24741,7 @@
     </row>
     <row r="53" spans="1:28" ht="45">
       <c r="A53" s="66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D53" s="57">
         <v>5</v>
@@ -24677,7 +24749,7 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="62" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B54" s="65"/>
       <c r="C54" s="65"/>
@@ -24709,44 +24781,44 @@
     </row>
     <row r="55" spans="1:28" ht="30">
       <c r="A55" s="60" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B55" s="67"/>
       <c r="C55" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D55" s="57"/>
       <c r="E55" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="30">
       <c r="A56" s="66" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D56" s="57"/>
     </row>
     <row r="57" spans="1:28" ht="30">
       <c r="A57" s="66" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D57" s="57"/>
     </row>
     <row r="58" spans="1:28" ht="45">
       <c r="A58" s="60" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D58" s="57"/>
     </row>
     <row r="59" spans="1:28" ht="30">
       <c r="A59" s="60" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D59" s="57"/>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B60" s="65"/>
       <c r="C60" s="65"/>
@@ -24778,44 +24850,44 @@
     </row>
     <row r="61" spans="1:28" ht="30">
       <c r="A61" s="66" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B61" s="67"/>
       <c r="C61" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D61" s="59"/>
       <c r="E61" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="45">
       <c r="A62" s="60" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="59"/>
     </row>
     <row r="63" spans="1:28" ht="30">
       <c r="A63" s="60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="59"/>
     </row>
     <row r="64" spans="1:28" ht="30">
       <c r="A64" s="60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="59"/>
     </row>
     <row r="65" spans="1:28" ht="30">
       <c r="A65" s="60" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" s="59"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B66" s="65"/>
       <c r="C66" s="65"/>
@@ -24847,44 +24919,44 @@
     </row>
     <row r="67" spans="1:28" ht="30">
       <c r="A67" s="60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B67" s="67"/>
       <c r="C67" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D67" s="59"/>
       <c r="E67" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="30">
       <c r="A68" s="60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D68" s="59"/>
     </row>
     <row r="69" spans="1:28" ht="30">
       <c r="A69" s="66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D69" s="59"/>
     </row>
     <row r="70" spans="1:28" ht="45">
       <c r="A70" s="60" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D70" s="59"/>
     </row>
     <row r="71" spans="1:28" ht="45">
       <c r="A71" s="60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D71" s="59"/>
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="62" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B72" s="65"/>
       <c r="C72" s="65"/>
@@ -24916,44 +24988,44 @@
     </row>
     <row r="73" spans="1:28" ht="30">
       <c r="A73" s="60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B73" s="67"/>
       <c r="C73" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D73" s="59"/>
       <c r="E73" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="30">
       <c r="A74" s="66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D74" s="59"/>
     </row>
     <row r="75" spans="1:28" ht="30">
       <c r="A75" s="60" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D75" s="59"/>
     </row>
     <row r="76" spans="1:28" ht="30">
       <c r="A76" s="60" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D76" s="59"/>
     </row>
     <row r="77" spans="1:28" ht="45">
       <c r="A77" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D77" s="59"/>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="62" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B78" s="65"/>
       <c r="C78" s="65"/>
@@ -24985,44 +25057,44 @@
     </row>
     <row r="79" spans="1:28" ht="30">
       <c r="A79" s="60" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B79" s="67"/>
       <c r="C79" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D79" s="59"/>
       <c r="E79" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="30">
       <c r="A80" s="66" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D80" s="59"/>
     </row>
     <row r="81" spans="1:28" ht="30">
       <c r="A81" s="60" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D81" s="59"/>
     </row>
     <row r="82" spans="1:28" ht="30">
       <c r="A82" s="60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D82" s="59"/>
     </row>
     <row r="83" spans="1:28" ht="45">
       <c r="A83" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D83" s="59"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="62" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B84" s="65"/>
       <c r="C84" s="65"/>
@@ -25054,44 +25126,44 @@
     </row>
     <row r="85" spans="1:28" ht="30">
       <c r="A85" s="66" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B85" s="67"/>
       <c r="C85" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D85" s="59"/>
       <c r="E85" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="30">
       <c r="A86" s="66" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D86" s="59"/>
     </row>
     <row r="87" spans="1:28" ht="15">
       <c r="A87" s="66" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D87" s="59"/>
     </row>
     <row r="88" spans="1:28" ht="30">
       <c r="A88" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D88" s="59"/>
     </row>
     <row r="89" spans="1:28" ht="45">
       <c r="A89" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D89" s="59"/>
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="62" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
@@ -25123,44 +25195,44 @@
     </row>
     <row r="91" spans="1:28" ht="45">
       <c r="A91" s="60" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B91" s="67"/>
       <c r="C91" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D91" s="59"/>
       <c r="E91" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="30">
       <c r="A92" s="60" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D92" s="59"/>
     </row>
     <row r="93" spans="1:28" ht="15">
       <c r="A93" s="66" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D93" s="59"/>
     </row>
     <row r="94" spans="1:28" ht="45">
       <c r="A94" s="60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D94" s="59"/>
     </row>
     <row r="95" spans="1:28" ht="30">
       <c r="A95" s="60" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D95" s="59"/>
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B96" s="65"/>
       <c r="C96" s="65"/>
@@ -25192,44 +25264,44 @@
     </row>
     <row r="97" spans="1:28" ht="45">
       <c r="A97" s="60" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B97" s="67"/>
       <c r="C97" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D97" s="59"/>
       <c r="E97" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="30">
       <c r="A98" s="66" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D98" s="59"/>
     </row>
     <row r="99" spans="1:28" ht="30">
       <c r="A99" s="60" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D99" s="59"/>
     </row>
     <row r="100" spans="1:28" ht="30">
       <c r="A100" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D100" s="59"/>
     </row>
     <row r="101" spans="1:28" ht="45">
       <c r="A101" s="60" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D101" s="59"/>
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="62" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B102" s="65"/>
       <c r="C102" s="65"/>
@@ -25261,44 +25333,44 @@
     </row>
     <row r="103" spans="1:28" ht="45">
       <c r="A103" s="66" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B103" s="67"/>
       <c r="C103" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D103" s="59"/>
       <c r="E103" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="30">
       <c r="A104" s="60" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D104" s="59"/>
     </row>
     <row r="105" spans="1:28" ht="30">
       <c r="A105" s="66" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D105" s="59"/>
     </row>
     <row r="106" spans="1:28" ht="30">
       <c r="A106" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D106" s="59"/>
     </row>
     <row r="107" spans="1:28" ht="45">
       <c r="A107" s="60" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D107" s="59"/>
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="68" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
@@ -25330,38 +25402,38 @@
     </row>
     <row r="109" spans="1:28" ht="30">
       <c r="A109" s="69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B109" s="67"/>
       <c r="C109" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D109" s="57"/>
       <c r="E109" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="30">
       <c r="A110" s="69" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D110" s="57"/>
     </row>
     <row r="111" spans="1:28" ht="30">
       <c r="A111" s="69" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D111" s="57"/>
     </row>
     <row r="112" spans="1:28" ht="30">
       <c r="A112" s="69" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D112" s="57"/>
     </row>
     <row r="113" spans="1:4" ht="45">
       <c r="A113" s="69" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D113" s="57"/>
     </row>
@@ -28182,7 +28254,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -28196,7 +28268,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -28210,7 +28282,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -28224,7 +28296,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="61" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -28232,7 +28304,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -28246,20 +28318,20 @@
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" s="66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D7" s="57"/>
       <c r="E7" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15">
       <c r="A8" s="66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
@@ -28267,7 +28339,7 @@
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -28275,7 +28347,7 @@
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="A10" s="60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
@@ -28283,7 +28355,7 @@
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="A11" s="60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -28291,7 +28363,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -28305,44 +28377,44 @@
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" s="66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" s="67"/>
       <c r="C13" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="66" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="A15" s="60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" s="57"/>
     </row>
     <row r="16" spans="1:10" ht="45">
       <c r="A16" s="60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D16" s="57"/>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D17" s="57"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="62" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -28356,44 +28428,44 @@
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" s="66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30">
       <c r="A20" s="60" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D20" s="59"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="60" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D21" s="59"/>
     </row>
     <row r="22" spans="1:10" ht="30">
       <c r="A22" s="66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D22" s="59"/>
     </row>
     <row r="23" spans="1:10" ht="45">
       <c r="A23" s="66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D23" s="59"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="62" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
@@ -28407,44 +28479,44 @@
     </row>
     <row r="25" spans="1:10" ht="25.5">
       <c r="A25" s="60" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B25" s="67"/>
       <c r="C25" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30">
       <c r="A26" s="60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D26" s="59"/>
     </row>
     <row r="27" spans="1:10" ht="30">
       <c r="A27" s="60" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D27" s="59"/>
     </row>
     <row r="28" spans="1:10" ht="30">
       <c r="A28" s="66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D28" s="59"/>
     </row>
     <row r="29" spans="1:10" ht="45">
       <c r="A29" s="66" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D29" s="59"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
@@ -28458,44 +28530,44 @@
     </row>
     <row r="31" spans="1:10" ht="30">
       <c r="A31" s="60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30">
       <c r="A32" s="60" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:10" ht="45">
       <c r="A33" s="66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D33" s="59"/>
     </row>
     <row r="34" spans="1:10" ht="30">
       <c r="A34" s="60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D34" s="59"/>
     </row>
     <row r="35" spans="1:10" ht="30">
       <c r="A35" s="60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
       <c r="A36" s="62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -28509,44 +28581,44 @@
     </row>
     <row r="37" spans="1:10" ht="45">
       <c r="A37" s="66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B37" s="67"/>
       <c r="C37" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="30">
       <c r="A38" s="66" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D38" s="59"/>
     </row>
     <row r="39" spans="1:10" ht="45">
       <c r="A39" s="60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D39" s="59"/>
     </row>
     <row r="40" spans="1:10" ht="45">
       <c r="A40" s="60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D40" s="59"/>
     </row>
     <row r="41" spans="1:10" ht="45">
       <c r="A41" s="66" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D41" s="59"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="62" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B42" s="65"/>
       <c r="C42" s="65"/>
@@ -28560,44 +28632,44 @@
     </row>
     <row r="43" spans="1:10" ht="30">
       <c r="A43" s="60" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B43" s="67"/>
       <c r="C43" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="66" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D44" s="59"/>
     </row>
     <row r="45" spans="1:10" ht="30">
       <c r="A45" s="66" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D45" s="59"/>
     </row>
     <row r="46" spans="1:10" ht="45">
       <c r="A46" s="60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:10" ht="30">
       <c r="A47" s="60" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" s="59"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B48" s="65"/>
       <c r="C48" s="65"/>
@@ -28611,44 +28683,44 @@
     </row>
     <row r="49" spans="1:10" ht="30">
       <c r="A49" s="60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B49" s="67"/>
       <c r="C49" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D49" s="57"/>
       <c r="E49" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30">
       <c r="A50" s="60" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D50" s="57"/>
     </row>
     <row r="51" spans="1:10" ht="30">
       <c r="A51" s="66" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D51" s="57"/>
     </row>
     <row r="52" spans="1:10" ht="45">
       <c r="A52" s="66" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D52" s="57"/>
     </row>
     <row r="53" spans="1:10" ht="45">
       <c r="A53" s="66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="62" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B54" s="65"/>
       <c r="C54" s="65"/>
@@ -28662,44 +28734,44 @@
     </row>
     <row r="55" spans="1:10" ht="30">
       <c r="A55" s="60" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B55" s="67"/>
       <c r="C55" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D55" s="57"/>
       <c r="E55" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30">
       <c r="A56" s="66" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D56" s="57"/>
     </row>
     <row r="57" spans="1:10" ht="30">
       <c r="A57" s="66" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D57" s="57"/>
     </row>
     <row r="58" spans="1:10" ht="45">
       <c r="A58" s="60" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D58" s="57"/>
     </row>
     <row r="59" spans="1:10" ht="30">
       <c r="A59" s="60" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D59" s="57"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B60" s="65"/>
       <c r="C60" s="65"/>
@@ -28713,44 +28785,44 @@
     </row>
     <row r="61" spans="1:10" ht="30">
       <c r="A61" s="66" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B61" s="67"/>
       <c r="C61" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D61" s="59"/>
       <c r="E61" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="45">
       <c r="A62" s="60" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="59"/>
     </row>
     <row r="63" spans="1:10" ht="30">
       <c r="A63" s="60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="59"/>
     </row>
     <row r="64" spans="1:10" ht="30">
       <c r="A64" s="60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="59"/>
     </row>
     <row r="65" spans="1:10" ht="30">
       <c r="A65" s="60" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" s="59"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B66" s="65"/>
       <c r="C66" s="65"/>
@@ -28764,44 +28836,44 @@
     </row>
     <row r="67" spans="1:10" ht="30">
       <c r="A67" s="60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B67" s="67"/>
       <c r="C67" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D67" s="59"/>
       <c r="E67" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30">
       <c r="A68" s="60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D68" s="59"/>
     </row>
     <row r="69" spans="1:10" ht="30">
       <c r="A69" s="66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D69" s="59"/>
     </row>
     <row r="70" spans="1:10" ht="45">
       <c r="A70" s="60" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D70" s="59"/>
     </row>
     <row r="71" spans="1:10" ht="45">
       <c r="A71" s="60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D71" s="59"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="62" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B72" s="65"/>
       <c r="C72" s="65"/>
@@ -28815,44 +28887,44 @@
     </row>
     <row r="73" spans="1:10" ht="30">
       <c r="A73" s="60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B73" s="67"/>
       <c r="C73" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D73" s="59"/>
       <c r="E73" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30">
       <c r="A74" s="66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D74" s="59"/>
     </row>
     <row r="75" spans="1:10" ht="30">
       <c r="A75" s="60" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D75" s="59"/>
     </row>
     <row r="76" spans="1:10" ht="30">
       <c r="A76" s="60" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D76" s="59"/>
     </row>
     <row r="77" spans="1:10" ht="45">
       <c r="A77" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D77" s="59"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="62" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B78" s="65"/>
       <c r="C78" s="65"/>
@@ -28866,44 +28938,44 @@
     </row>
     <row r="79" spans="1:10" ht="30">
       <c r="A79" s="60" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B79" s="67"/>
       <c r="C79" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D79" s="59"/>
       <c r="E79" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="30">
       <c r="A80" s="66" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D80" s="59"/>
     </row>
     <row r="81" spans="1:10" ht="30">
       <c r="A81" s="60" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D81" s="59"/>
     </row>
     <row r="82" spans="1:10" ht="30">
       <c r="A82" s="60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D82" s="59"/>
     </row>
     <row r="83" spans="1:10" ht="45">
       <c r="A83" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D83" s="59"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="62" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B84" s="65"/>
       <c r="C84" s="65"/>
@@ -28917,44 +28989,44 @@
     </row>
     <row r="85" spans="1:10" ht="30">
       <c r="A85" s="66" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B85" s="67"/>
       <c r="C85" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D85" s="59"/>
       <c r="E85" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30">
       <c r="A86" s="66" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D86" s="59"/>
     </row>
     <row r="87" spans="1:10" ht="15">
       <c r="A87" s="66" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D87" s="59"/>
     </row>
     <row r="88" spans="1:10" ht="30">
       <c r="A88" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D88" s="59"/>
     </row>
     <row r="89" spans="1:10" ht="45">
       <c r="A89" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D89" s="59"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="62" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
@@ -28968,44 +29040,44 @@
     </row>
     <row r="91" spans="1:10" ht="45">
       <c r="A91" s="60" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B91" s="67"/>
       <c r="C91" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D91" s="59"/>
       <c r="E91" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30">
       <c r="A92" s="60" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D92" s="59"/>
     </row>
     <row r="93" spans="1:10" ht="15">
       <c r="A93" s="66" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D93" s="59"/>
     </row>
     <row r="94" spans="1:10" ht="45">
       <c r="A94" s="60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D94" s="59"/>
     </row>
     <row r="95" spans="1:10" ht="30">
       <c r="A95" s="60" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D95" s="59"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B96" s="65"/>
       <c r="C96" s="65"/>
@@ -29019,44 +29091,44 @@
     </row>
     <row r="97" spans="1:10" ht="45">
       <c r="A97" s="60" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B97" s="67"/>
       <c r="C97" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D97" s="59"/>
       <c r="E97" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="30">
       <c r="A98" s="66" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D98" s="59"/>
     </row>
     <row r="99" spans="1:10" ht="30">
       <c r="A99" s="60" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D99" s="59"/>
     </row>
     <row r="100" spans="1:10" ht="30">
       <c r="A100" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D100" s="59"/>
     </row>
     <row r="101" spans="1:10" ht="45">
       <c r="A101" s="60" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D101" s="59"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="62" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B102" s="65"/>
       <c r="C102" s="65"/>
@@ -29070,44 +29142,44 @@
     </row>
     <row r="103" spans="1:10" ht="45">
       <c r="A103" s="66" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B103" s="67"/>
       <c r="C103" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D103" s="59"/>
       <c r="E103" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="30">
       <c r="A104" s="60" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D104" s="59"/>
     </row>
     <row r="105" spans="1:10" ht="30">
       <c r="A105" s="66" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D105" s="59"/>
     </row>
     <row r="106" spans="1:10" ht="30">
       <c r="A106" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D106" s="59"/>
     </row>
     <row r="107" spans="1:10" ht="45">
       <c r="A107" s="60" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D107" s="59"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="68" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
@@ -29121,38 +29193,38 @@
     </row>
     <row r="109" spans="1:10" ht="30">
       <c r="A109" s="69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B109" s="67"/>
       <c r="C109" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D109" s="57"/>
       <c r="E109" s="67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="30">
       <c r="A110" s="69" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D110" s="57"/>
     </row>
     <row r="111" spans="1:10" ht="30">
       <c r="A111" s="69" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D111" s="57"/>
     </row>
     <row r="112" spans="1:10" ht="30">
       <c r="A112" s="69" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D112" s="57"/>
     </row>
     <row r="113" spans="1:4" ht="45">
       <c r="A113" s="69" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D113" s="57"/>
     </row>
@@ -29305,27 +29377,27 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
@@ -29344,7 +29416,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="71" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C9" s="39">
         <f>COUNTIF('Step 4A - one UC'!D6:D108, "y")</f>
@@ -29363,7 +29435,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="71" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C10" s="39">
         <f>SUM('Step 4A - one UC'!D:D)</f>
@@ -29382,7 +29454,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="71" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C11" s="39">
         <f>C9*5*5</f>
@@ -29401,7 +29473,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="71" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C12" s="72" t="e">
         <f>(C10/C11)*100</f>
@@ -29457,7 +29529,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="58" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C19" s="74"/>
       <c r="E19" s="74"/>
@@ -29498,7 +29570,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="C27" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -29670,7 +29742,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -29769,28 +29841,28 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="47.25" customHeight="1">
-      <c r="B9" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
     </row>
     <row r="10" spans="1:5" ht="36">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="90" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="90" t="s">
-        <v>259</v>
-      </c>
-      <c r="E10" s="90" t="s">
-        <v>254</v>
+      <c r="B10" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -29833,17 +29905,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="66" customHeight="1">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="81" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="81" t="s">
         <v>255</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>257</v>
-      </c>
-      <c r="E14" s="90" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
@@ -32737,7 +32809,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -32759,7 +32831,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -32781,7 +32853,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="76" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -32803,7 +32875,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -32819,7 +32891,9 @@
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -32922,12 +32996,12 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="42" customHeight="1">
-      <c r="B9" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -32955,10 +33029,18 @@
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="15">
       <c r="A11" s="14"/>
@@ -32999,11 +33081,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="35.25" customHeight="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+    <row r="14" spans="1:27" ht="60" customHeight="1">
+      <c r="B14" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="15">
       <c r="A15" s="14"/>
@@ -35889,7 +35979,9 @@
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -35991,13 +36083,13 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="12.75">
-      <c r="B9" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+    <row r="9" spans="1:27" ht="34.5" customHeight="1">
+      <c r="B9" s="84" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -36021,14 +36113,22 @@
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
     </row>
-    <row r="10" spans="1:27" ht="36">
+    <row r="10" spans="1:27" ht="45">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="15">
       <c r="A11" s="14"/>
@@ -36069,11 +36169,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="35.25" customHeight="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+    <row r="14" spans="1:27" ht="51" customHeight="1">
+      <c r="B14" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="15">
       <c r="A15" s="14"/>
@@ -38959,7 +39067,9 @@
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -38981,7 +39091,7 @@
     </row>
     <row r="2" spans="1:27" ht="18">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -39039,7 +39149,7 @@
     </row>
     <row r="6" spans="1:27" ht="18">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -39061,13 +39171,13 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="12.75">
-      <c r="B9" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+    <row r="9" spans="1:27" ht="74.25" customHeight="1">
+      <c r="B9" s="84" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -39095,10 +39205,18 @@
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="15">
       <c r="A11" s="14"/>
@@ -39140,10 +39258,18 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="35.25" customHeight="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="15">
       <c r="A15" s="14"/>
@@ -42029,7 +42155,7 @@
   </sheetPr>
   <dimension ref="A1:AA1006"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -42051,7 +42177,7 @@
     </row>
     <row r="2" spans="1:27" ht="18">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -42109,7 +42235,7 @@
     </row>
     <row r="6" spans="1:27" ht="18">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -42131,13 +42257,13 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="12.75">
-      <c r="B9" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+    <row r="9" spans="1:27" ht="37.5" customHeight="1">
+      <c r="B9" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -45112,42 +45238,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="26"/>
-      <c r="C7" s="79" t="str">
+      <c r="C7" s="85" t="str">
         <f>'Step 1A - UC 1'!B9</f>
         <v>(Quality Control with Computer Vision )</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="28" t="str">
         <f>'Step 1A - UC 1'!B14</f>
@@ -45186,62 +45312,62 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="C14" s="32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="C15" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="33"/>
     </row>
     <row r="17" spans="2:3" ht="15">
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15">
       <c r="C18" s="32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15">
       <c r="C19" s="32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15">
       <c r="C20" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15">
       <c r="C21" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15">
       <c r="C22" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15">
       <c r="C23" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -45273,58 +45399,58 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="26"/>
-      <c r="C7" s="82" t="str">
+      <c r="C7" s="88" t="str">
         <f>'Step 1A - UC 2'!B9</f>
-        <v>(Type Your Use Case 2 Short Name Here)</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
+        <v>(Optimal tax strategy predictor)</v>
+      </c>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="28">
+        <v>66</v>
+      </c>
+      <c r="C8" s="28" t="str">
         <f>'Step 1A - UC 2'!B14</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="28">
+        <v>tax codes are collected</v>
+      </c>
+      <c r="D8" s="28" t="str">
         <f>'Step 1A - UC 2'!C14</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="28">
+        <v>tax codes are segmented using NLP</v>
+      </c>
+      <c r="E8" s="28" t="str">
         <f>'Step 1A - UC 2'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="28">
+        <v>generic predictors are used in accordance with the organization's ERP</v>
+      </c>
+      <c r="F8" s="28" t="str">
         <f>'Step 1A - UC 2'!E14</f>
-        <v>0</v>
+        <v>predict the best tax strategy</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -45347,62 +45473,62 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="C14" s="32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="C15" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="33"/>
     </row>
     <row r="17" spans="2:3" ht="15">
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15">
       <c r="C18" s="32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15">
       <c r="C19" s="32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15">
       <c r="C20" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15">
       <c r="C21" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15">
       <c r="C22" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15">
       <c r="C23" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/01_project-steps-delivering-an-ml-ai-strategy.xlsx
+++ b/01_project-steps-delivering-an-ml-ai-strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveSysncOsa\OneDrive - Taibah University\DropBox\1440-1441 Second Semester\Udacity Reviewer\My own projects\ML Project\Github Repo\Delivering-an-ML-AI-Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9160BEF3-94DE-43C0-9A7A-E9A1F2D75422}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E427180-D723-4303-9F62-3303CC4C6B79}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECTIONS" sheetId="1" r:id="rId1"/>
@@ -2186,6 +2186,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2205,8 +2207,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3363,13 +3363,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="26"/>
-      <c r="C7" s="88" t="str">
+      <c r="C7" s="90" t="str">
         <f>'Step 1A - UC 3'!B9</f>
         <v>(Car Detection of Customer ID)</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
     </row>
     <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="33" t="s">
@@ -3417,7 +3417,7 @@
       <c r="C13" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="82" t="s">
         <v>308</v>
       </c>
       <c r="E13" s="3"/>
@@ -3426,7 +3426,7 @@
       <c r="C14" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="82" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       <c r="C15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="82" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       <c r="C17" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="83" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       <c r="C18" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="83" t="s">
         <v>312</v>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       <c r="C19" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="83" t="s">
         <v>313</v>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       <c r="C20" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="83" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       <c r="C21" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="83" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3552,13 +3552,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="26"/>
-      <c r="C7" s="88" t="str">
+      <c r="C7" s="90" t="str">
         <f>'Step 1A - UC 4'!B9</f>
         <v>(Car Maintenance Expector)</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
     </row>
     <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="27" t="s">
@@ -3606,7 +3606,7 @@
       <c r="C13" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="82" t="s">
         <v>316</v>
       </c>
       <c r="E13" s="3"/>
@@ -3615,7 +3615,7 @@
       <c r="C14" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="82" t="s">
         <v>317</v>
       </c>
     </row>
@@ -3623,7 +3623,7 @@
       <c r="C15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="82" t="s">
         <v>318</v>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="C17" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="83" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -3741,13 +3741,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="26"/>
-      <c r="C7" s="88" t="str">
+      <c r="C7" s="90" t="str">
         <f>'Step 1A - UC 5'!B9</f>
         <v>(Supply Chain Costs Prediction)</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
     </row>
     <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="27" t="s">
@@ -3795,7 +3795,7 @@
       <c r="C13" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="82" t="s">
         <v>324</v>
       </c>
       <c r="E13" s="3"/>
@@ -3804,7 +3804,7 @@
       <c r="C14" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="82" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       <c r="C15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="82" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3891,12 +3891,14 @@
   </sheetPr>
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
   </cols>
@@ -3937,7 +3939,9 @@
       <c r="E4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="44">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="C5" s="37"/>
@@ -3976,7 +3980,9 @@
       <c r="F10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="44"/>
+      <c r="K10" s="44">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="D11" s="43"/>
@@ -4015,7 +4021,9 @@
       <c r="F16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="44"/>
+      <c r="K16" s="44">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="4:11" ht="15">
       <c r="K17" s="38"/>
@@ -4031,7 +4039,9 @@
       <c r="E19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="44">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="4:11" ht="15.75" customHeight="1">
       <c r="D20" s="46"/>
@@ -4059,7 +4069,9 @@
       <c r="E24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="44"/>
+      <c r="K24" s="44">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="4:11" ht="15">
       <c r="K25" s="38"/>
@@ -7011,12 +7023,14 @@
   </sheetPr>
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" customWidth="1"/>
   </cols>
@@ -7057,7 +7071,9 @@
       <c r="E4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="44">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="C5" s="37"/>
@@ -7096,7 +7112,9 @@
       <c r="F10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="44"/>
+      <c r="K10" s="44">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="D11" s="43"/>
@@ -7135,7 +7153,9 @@
       <c r="F16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="44"/>
+      <c r="K16" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="4:11" ht="15">
       <c r="K17" s="38"/>
@@ -7151,7 +7171,9 @@
       <c r="E19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="44">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="4:11" ht="15.75" customHeight="1">
       <c r="D20" s="46"/>
@@ -7179,7 +7201,9 @@
       <c r="E24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="44"/>
+      <c r="K24" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="4:11" ht="15">
       <c r="K25" s="38"/>
@@ -10131,12 +10155,14 @@
   </sheetPr>
   <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="6.140625" customWidth="1"/>
   </cols>
@@ -10177,7 +10203,9 @@
       <c r="E4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="44">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="C5" s="37"/>
@@ -10216,7 +10244,9 @@
       <c r="F10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="44"/>
+      <c r="K10" s="44">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="D11" s="43"/>
@@ -10255,7 +10285,9 @@
       <c r="F16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="44"/>
+      <c r="K16" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="4:11" ht="15">
       <c r="K17" s="38"/>
@@ -10271,7 +10303,9 @@
       <c r="E19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="44">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="4:11" ht="15.75" customHeight="1">
       <c r="D20" s="46"/>
@@ -10299,7 +10333,9 @@
       <c r="E24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="44"/>
+      <c r="K24" s="44">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="4:11" ht="15.75" customHeight="1">
       <c r="D25" s="12"/>
@@ -13258,12 +13294,14 @@
   </sheetPr>
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" customWidth="1"/>
   </cols>
@@ -13304,7 +13342,9 @@
       <c r="E4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="44">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="C5" s="37"/>
@@ -13343,7 +13383,9 @@
       <c r="F10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="44"/>
+      <c r="K10" s="44">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="D11" s="43"/>
@@ -13382,7 +13424,9 @@
       <c r="F16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="44"/>
+      <c r="K16" s="44">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="4:11" ht="15">
       <c r="K17" s="38"/>
@@ -13398,7 +13442,9 @@
       <c r="E19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="4:11" ht="15.75" customHeight="1">
       <c r="D20" s="46"/>
@@ -13426,7 +13472,9 @@
       <c r="E24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="44"/>
+      <c r="K24" s="44">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="4:11" ht="15">
       <c r="K25" s="38"/>
@@ -16378,12 +16426,14 @@
   </sheetPr>
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="6.140625" customWidth="1"/>
   </cols>
@@ -16424,7 +16474,9 @@
       <c r="E4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="44">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="C5" s="37"/>
@@ -16463,7 +16515,9 @@
       <c r="F10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="44"/>
+      <c r="K10" s="44">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="D11" s="43"/>
@@ -16502,7 +16556,9 @@
       <c r="F16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="44"/>
+      <c r="K16" s="44">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="4:11" ht="15">
       <c r="K17" s="38"/>
@@ -16518,7 +16574,9 @@
       <c r="E19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="44">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="4:11" ht="15.75" customHeight="1">
       <c r="D20" s="46"/>
@@ -16546,7 +16604,9 @@
       <c r="E24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="44"/>
+      <c r="K24" s="44">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="4:11" ht="15">
       <c r="K25" s="38"/>
@@ -19516,11 +19576,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B2" s="89" t="str">
+      <c r="B2" s="91" t="str">
         <f>'Step 1A - UC 1'!B9</f>
         <v>(Quality Control with Computer Vision )</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="92"/>
       <c r="E2" s="43" t="s">
         <v>117</v>
       </c>
@@ -19616,11 +19676,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B2" s="89" t="str">
+      <c r="B2" s="91" t="str">
         <f>'Step 1A - UC 2'!B9</f>
         <v>(Optimal tax strategy predictor)</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="92"/>
       <c r="E2" s="43" t="s">
         <v>117</v>
       </c>
@@ -19830,11 +19890,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B2" s="89" t="str">
+      <c r="B2" s="91" t="str">
         <f>'Step 1A - UC 3'!B9</f>
         <v>(Car Detection of Customer ID)</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="92"/>
       <c r="E2" s="43" t="s">
         <v>117</v>
       </c>
@@ -19936,11 +19996,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B2" s="89" t="str">
+      <c r="B2" s="91" t="str">
         <f>'Step 1A - UC 4'!B9</f>
         <v>(Car Maintenance Expector)</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="92"/>
       <c r="E2" s="43" t="s">
         <v>117</v>
       </c>
@@ -20042,11 +20102,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B2" s="89" t="str">
+      <c r="B2" s="91" t="str">
         <f>'Step 1A - UC 5'!B9</f>
         <v>(Supply Chain Costs Prediction)</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="92"/>
       <c r="E2" s="43" t="s">
         <v>117</v>
       </c>
@@ -30086,12 +30146,12 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="47.25" customHeight="1">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
     </row>
     <row r="10" spans="1:5" ht="36">
       <c r="A10" s="11" t="s">
@@ -33241,12 +33301,12 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="42" customHeight="1">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -36329,12 +36389,12 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="34.5" customHeight="1">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="86" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -39417,12 +39477,12 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="74.25" customHeight="1">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="86" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -42505,12 +42565,12 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="37.5" customHeight="1">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="86" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -45528,13 +45588,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="26"/>
-      <c r="C7" s="85" t="str">
+      <c r="C7" s="87" t="str">
         <f>'Step 1A - UC 1'!B9</f>
         <v>(Quality Control with Computer Vision )</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
     </row>
     <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="27" t="s">
@@ -45582,7 +45642,7 @@
       <c r="C13" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="82" t="s">
         <v>292</v>
       </c>
       <c r="E13" s="3"/>
@@ -45591,7 +45651,7 @@
       <c r="C14" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="82" t="s">
         <v>293</v>
       </c>
     </row>
@@ -45599,7 +45659,7 @@
       <c r="C15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="82" t="s">
         <v>294</v>
       </c>
     </row>
@@ -45718,13 +45778,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="26"/>
-      <c r="C7" s="88" t="str">
+      <c r="C7" s="90" t="str">
         <f>'Step 1A - UC 2'!B9</f>
         <v>(Optimal tax strategy predictor)</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
     </row>
     <row r="8" spans="1:6" ht="42.75">
       <c r="B8" s="33" t="s">
@@ -45772,7 +45832,7 @@
       <c r="C13" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="82" t="s">
         <v>300</v>
       </c>
       <c r="E13" s="3"/>
@@ -45781,7 +45841,7 @@
       <c r="C14" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="82" t="s">
         <v>301</v>
       </c>
     </row>
@@ -45789,7 +45849,7 @@
       <c r="C15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="82" t="s">
         <v>302</v>
       </c>
     </row>
@@ -45800,7 +45860,7 @@
       <c r="C17" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="83" t="s">
         <v>303</v>
       </c>
     </row>
@@ -45808,7 +45868,7 @@
       <c r="C18" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="83" t="s">
         <v>304</v>
       </c>
     </row>
@@ -45816,7 +45876,7 @@
       <c r="C19" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="83" t="s">
         <v>305</v>
       </c>
     </row>
@@ -45824,7 +45884,7 @@
       <c r="C20" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="83" t="s">
         <v>306</v>
       </c>
     </row>
@@ -45832,7 +45892,7 @@
       <c r="C21" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="83" t="s">
         <v>307</v>
       </c>
     </row>

--- a/01_project-steps-delivering-an-ml-ai-strategy.xlsx
+++ b/01_project-steps-delivering-an-ml-ai-strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveSysncOsa\OneDrive - Taibah University\DropBox\1440-1441 Second Semester\Udacity Reviewer\My own projects\ML Project\Github Repo\Delivering-an-ML-AI-Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E427180-D723-4303-9F62-3303CC4C6B79}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CAB5FA55-28F4-4479-A901-97D01CCE0C6C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECTIONS" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="333">
   <si>
     <t>Step 0: Choose Your Business Context</t>
   </si>
@@ -1547,6 +1547,9 @@
   </si>
   <si>
     <t>machine learning is forcing inspection’s inflection point across supply chains today</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -16426,7 +16429,7 @@
   </sheetPr>
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -19558,7 +19561,9 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -19605,7 +19610,9 @@
         <f>'Step 1A - UC 1'!D15</f>
         <v>resolution</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="50" t="s">
+        <v>332</v>
+      </c>
       <c r="F4" s="43" t="s">
         <v>118</v>
       </c>
@@ -19658,7 +19665,9 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -19705,7 +19714,9 @@
         <f>'Step 1A - UC 2'!D15</f>
         <v>resolution</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="50" t="s">
+        <v>332</v>
+      </c>
       <c r="F4" s="43" t="s">
         <v>118</v>
       </c>
@@ -19719,7 +19730,9 @@
         <f>'Step 1A - UC 2'!D9</f>
         <v>0</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="44" t="s">
+        <v>332</v>
+      </c>
       <c r="F5" s="43" t="s">
         <v>119</v>
       </c>
@@ -19872,7 +19885,9 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -19919,7 +19934,9 @@
         <f>'Step 1A - UC 3'!D15</f>
         <v>resolution</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="50" t="s">
+        <v>332</v>
+      </c>
       <c r="F4" s="43" t="s">
         <v>118</v>
       </c>
@@ -19945,7 +19962,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="E7" s="44"/>
+      <c r="E7" s="44" t="s">
+        <v>332</v>
+      </c>
       <c r="F7" s="43" t="s">
         <v>121</v>
       </c>
@@ -19978,7 +19997,9 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -20039,7 +20060,9 @@
         <f>'Step 1A - UC 4'!D9</f>
         <v>0</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="44" t="s">
+        <v>332</v>
+      </c>
       <c r="F5" s="43" t="s">
         <v>119</v>
       </c>
@@ -20084,7 +20107,9 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -20145,7 +20170,9 @@
         <f>'Step 1A - UC 5'!D9</f>
         <v>0</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="44" t="s">
+        <v>332</v>
+      </c>
       <c r="F5" s="43" t="s">
         <v>119</v>
       </c>
@@ -20190,7 +20217,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>

--- a/01_project-steps-delivering-an-ml-ai-strategy.xlsx
+++ b/01_project-steps-delivering-an-ml-ai-strategy.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CAB5FA55-28F4-4479-A901-97D01CCE0C6C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECTIONS" sheetId="1" r:id="rId1"/>
@@ -3515,8 +3515,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -20217,7 +20217,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -39400,7 +39400,7 @@
   <dimension ref="A1:AA1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>

--- a/01_project-steps-delivering-an-ml-ai-strategy.xlsx
+++ b/01_project-steps-delivering-an-ml-ai-strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveSysncOsa\OneDrive - Taibah University\DropBox\1440-1441 Second Semester\Udacity Reviewer\My own projects\ML Project\Github Repo\Delivering-an-ML-AI-Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CAB5FA55-28F4-4479-A901-97D01CCE0C6C}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{227EAD98-543B-4A12-8C86-60E586E615FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="22" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECTIONS" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="334">
   <si>
     <t>Step 0: Choose Your Business Context</t>
   </si>
@@ -1550,6 +1550,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -3515,7 +3518,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -20261,7 +20264,9 @@
   </sheetPr>
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -20438,7 +20443,9 @@
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>333</v>
+      </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
       <c r="G12" s="64"/>
@@ -20472,7 +20479,9 @@
       <c r="C13" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="56">
+        <v>4</v>
+      </c>
       <c r="E13" s="66" t="s">
         <v>135</v>
       </c>
@@ -20481,25 +20490,33 @@
       <c r="A14" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="56">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:28" ht="30">
       <c r="A15" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="56"/>
+      <c r="D15" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:28" ht="45">
       <c r="A16" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="56">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:28" ht="30">
       <c r="A17" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1">
       <c r="A18" s="61" t="s">
@@ -21542,7 +21559,9 @@
       </c>
       <c r="B108" s="64"/>
       <c r="C108" s="64"/>
-      <c r="D108" s="63"/>
+      <c r="D108" s="63" t="s">
+        <v>333</v>
+      </c>
       <c r="E108" s="64"/>
       <c r="F108" s="64"/>
       <c r="G108" s="64"/>
@@ -21576,7 +21595,9 @@
       <c r="C109" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D109" s="56"/>
+      <c r="D109" s="56">
+        <v>5</v>
+      </c>
       <c r="E109" s="66" t="s">
         <v>135</v>
       </c>
@@ -21585,25 +21606,33 @@
       <c r="A110" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="D110" s="56"/>
+      <c r="D110" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="111" spans="1:28" ht="30">
       <c r="A111" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="56"/>
+      <c r="D111" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="112" spans="1:28" ht="30">
       <c r="A112" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="D112" s="56"/>
+      <c r="D112" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="45">
       <c r="A113" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="D113" s="56"/>
+      <c r="D113" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="114" spans="1:4" ht="12.75">
       <c r="D114" s="56"/>
@@ -24413,7 +24442,9 @@
   </sheetPr>
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -24592,7 +24623,9 @@
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>333</v>
+      </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
       <c r="G12" s="64"/>
@@ -24626,7 +24659,9 @@
       <c r="C13" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="56">
+        <v>4</v>
+      </c>
       <c r="E13" s="66" t="s">
         <v>135</v>
       </c>
@@ -24635,25 +24670,33 @@
       <c r="A14" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="56">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:28" ht="30">
       <c r="A15" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="56"/>
+      <c r="D15" s="56">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:28" ht="45">
       <c r="A16" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="56">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:28" ht="30">
       <c r="A17" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="56">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1">
       <c r="A18" s="61" t="s">
@@ -25568,7 +25611,9 @@
       </c>
       <c r="B96" s="64"/>
       <c r="C96" s="64"/>
-      <c r="D96" s="63"/>
+      <c r="D96" s="63" t="s">
+        <v>333</v>
+      </c>
       <c r="E96" s="64"/>
       <c r="F96" s="64"/>
       <c r="G96" s="64"/>
@@ -25602,7 +25647,9 @@
       <c r="C97" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D97" s="58"/>
+      <c r="D97" s="58">
+        <v>3</v>
+      </c>
       <c r="E97" s="66" t="s">
         <v>135</v>
       </c>
@@ -25611,25 +25658,33 @@
       <c r="A98" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="D98" s="58"/>
+      <c r="D98" s="58">
+        <v>4</v>
+      </c>
     </row>
     <row r="99" spans="1:28" ht="30">
       <c r="A99" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="D99" s="58"/>
+      <c r="D99" s="58">
+        <v>3</v>
+      </c>
     </row>
     <row r="100" spans="1:28" ht="30">
       <c r="A100" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="D100" s="58"/>
+      <c r="D100" s="58">
+        <v>3</v>
+      </c>
     </row>
     <row r="101" spans="1:28" ht="45">
       <c r="A101" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="D101" s="58"/>
+      <c r="D101" s="58">
+        <v>3</v>
+      </c>
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="61" t="s">
@@ -28576,7 +28631,9 @@
   </sheetPr>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -28640,7 +28697,9 @@
       </c>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
+      <c r="D6" s="63" t="s">
+        <v>333</v>
+      </c>
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
@@ -28656,7 +28715,9 @@
       <c r="C7" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="56"/>
+      <c r="D7" s="56">
+        <v>5</v>
+      </c>
       <c r="E7" s="66" t="s">
         <v>135</v>
       </c>
@@ -28667,7 +28728,9 @@
       </c>
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
-      <c r="D8" s="56"/>
+      <c r="D8" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="59" t="s">
@@ -28675,7 +28738,9 @@
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
-      <c r="D9" s="56"/>
+      <c r="D9" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="A10" s="59" t="s">
@@ -28683,7 +28748,9 @@
       </c>
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
-      <c r="D10" s="56"/>
+      <c r="D10" s="56">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="A11" s="59" t="s">
@@ -28691,7 +28758,9 @@
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="56"/>
+      <c r="D11" s="56">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="61" t="s">
@@ -29752,17 +29821,17 @@
       </c>
       <c r="C9" s="38">
         <f>COUNTIF('Step 4A - one UC'!D6:D108, "y")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38">
         <f>COUNTIF('Step 4A - a second UC'!D6:D108, "y")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38">
         <f>COUNTIF('Step 4A - a third UC'!D6:D108, "y")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
@@ -29771,17 +29840,17 @@
       </c>
       <c r="C10" s="38">
         <f>SUM('Step 4A - one UC'!D:D)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="38">
         <f>SUM('Step 4A - a second UC'!D:D)</f>
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="38">
         <f>SUM('Step 4A - a third UC'!D:D)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
@@ -29790,36 +29859,36 @@
       </c>
       <c r="C11" s="38">
         <f>C9*5*5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="38">
         <f>E9*5*5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="38">
         <f>G9*5*5</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="71" t="e">
+      <c r="C12" s="71">
         <f>(C10/C11)*100</f>
-        <v>#DIV/0!</v>
+        <v>94</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="71" t="e">
+      <c r="E12" s="71">
         <f>(E10/E11)*100</f>
-        <v>#DIV/0!</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="71" t="e">
+      <c r="G12" s="71">
         <f>(G10/G11)*100</f>
-        <v>#DIV/0!</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
@@ -30068,7 +30137,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>

--- a/01_project-steps-delivering-an-ml-ai-strategy.xlsx
+++ b/01_project-steps-delivering-an-ml-ai-strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveSysncOsa\OneDrive - Taibah University\DropBox\1440-1441 Second Semester\Udacity Reviewer\My own projects\ML Project\Github Repo\Delivering-an-ML-AI-Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{227EAD98-543B-4A12-8C86-60E586E615FA}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF1D3BA8-1E59-4382-A6EE-49E50C1E1980}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="22" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECTIONS" sheetId="1" r:id="rId1"/>
@@ -3518,8 +3518,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30137,7 +30137,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -30160,7 +30160,7 @@
   <dimension ref="A1:E1012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -33293,7 +33293,7 @@
   <dimension ref="A1:AA1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -45645,7 +45645,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>

--- a/01_project-steps-delivering-an-ml-ai-strategy.xlsx
+++ b/01_project-steps-delivering-an-ml-ai-strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveSysncOsa\OneDrive - Taibah University\DropBox\1440-1441 Second Semester\Udacity Reviewer\My own projects\ML Project\Github Repo\Delivering-an-ML-AI-Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF1D3BA8-1E59-4382-A6EE-49E50C1E1980}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BDD66B35-4768-4884-AE77-1CB0E1270B05}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECTIONS" sheetId="1" r:id="rId1"/>
@@ -1297,30 +1297,6 @@
     <t>(Quality Control with Computer Vision )</t>
   </si>
   <si>
-    <t>collecting random samples</t>
-  </si>
-  <si>
-    <t>more increase in random samples</t>
-  </si>
-  <si>
-    <t>stop machine / line</t>
-  </si>
-  <si>
-    <t>The entire dataset will be explored instead of random sample</t>
-  </si>
-  <si>
-    <t>The devices will be checked using CV to check if it is defective or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if number of defective devices &gt; threshold </t>
-  </si>
-  <si>
-    <t>stop machine /line. The accuracy if very hight the machine/line will be stopped only if there are defectives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if number of defectives in the random sample  &gt; threshold </t>
-  </si>
-  <si>
     <t>(Optimal tax strategy predictor)</t>
   </si>
   <si>
@@ -1349,30 +1325,6 @@
   </si>
   <si>
     <t>(Car Detection of Customer ID)</t>
-  </si>
-  <si>
-    <t>The car preferences</t>
-  </si>
-  <si>
-    <t>The customer should change it manually</t>
-  </si>
-  <si>
-    <t>In case the customer find uncomfortable thing, he shall do it manually</t>
-  </si>
-  <si>
-    <t>Customer service may help him in changing preferences manually</t>
-  </si>
-  <si>
-    <t>car preferences are collected</t>
-  </si>
-  <si>
-    <t>we should join preferences to each corresponding customer id</t>
-  </si>
-  <si>
-    <t>Camera can detect the customer face to define the customer id</t>
-  </si>
-  <si>
-    <t>car preferences are changed automatically</t>
   </si>
   <si>
     <t>(Car Maintenance Expector)</t>
@@ -1553,6 +1505,60 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samples of defective devices
+- general categories of defectives. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defectives are categoriezed according to urgency. 
+- some defective types may lead to pausing production line. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">search if number of defective devices passing the production line is &gt; threshold or the defective urgency is high </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of defectives may lead to pausing or stopping production line. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">camera is focused on products on the production line. Camera collects samples of defective and non-defective devices. 
+- historical products data in both defective and non-defective states are collected. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the list of collected historical images of defective and non-defective devices are used in training AI classifier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The trained model classifier are used in real time classification through camera to classify each product as eigher defective or non-defective and also measure its defective urgency. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">high defective productes thershold may stop or pause the production line. Git rid of the defective product. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The collected user images will be used to "re-train" the model on the new user's dataset. </t>
+  </si>
+  <si>
+    <t>pr-trained models for face recognition 
+- collect user face images with different angles and shapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The trained model will detect the customer face with approximately 4% False Negatives. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The car will respond, opening locks, flash signs, etc. </t>
+  </si>
+  <si>
+    <t>key with sensor
+- the sensor has something like code that transferred wirelessly</t>
+  </si>
+  <si>
+    <t>car has also receiving device that only unlock when spcific code is received</t>
+  </si>
+  <si>
+    <t>The car is programmed to accept spcific wireless code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the code detected, the car responds accordingly, opening door lock, signals, etc. </t>
   </si>
 </sst>
 </file>
@@ -3383,19 +3389,20 @@
       </c>
       <c r="C8" s="28" t="str">
         <f>'Step 1A - UC 3'!B14</f>
-        <v>car preferences are collected</v>
+        <v>pr-trained models for face recognition 
+- collect user face images with different angles and shapes</v>
       </c>
       <c r="D8" s="28" t="str">
         <f>'Step 1A - UC 3'!C14</f>
-        <v>we should join preferences to each corresponding customer id</v>
+        <v xml:space="preserve">The collected user images will be used to "re-train" the model on the new user's dataset. </v>
       </c>
       <c r="E8" s="28" t="str">
         <f>'Step 1A - UC 3'!D14</f>
-        <v>Camera can detect the customer face to define the customer id</v>
+        <v xml:space="preserve">The trained model will detect the customer face with approximately 4% False Negatives. </v>
       </c>
       <c r="F8" s="28" t="str">
         <f>'Step 1A - UC 3'!E14</f>
-        <v>car preferences are changed automatically</v>
+        <v xml:space="preserve">The car will respond, opening locks, flash signs, etc. </v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -3424,7 +3431,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3433,7 +3440,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -3441,7 +3448,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -3452,7 +3459,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -3460,7 +3467,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -3468,7 +3475,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -3476,7 +3483,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -3484,7 +3491,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">
@@ -3518,7 +3525,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17:D21"/>
     </sheetView>
   </sheetViews>
@@ -3613,7 +3620,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3622,7 +3629,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -3630,7 +3637,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -3641,7 +3648,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -3649,7 +3656,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -3657,7 +3664,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -3665,7 +3672,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -3673,7 +3680,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">
@@ -3802,7 +3809,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3811,7 +3818,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -3819,7 +3826,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -3830,7 +3837,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -3838,7 +3845,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -3846,7 +3853,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -3854,7 +3861,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -3862,7 +3869,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">
@@ -3931,7 +3938,8 @@
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="42" t="str">
         <f>'Step 1A - UC 1'!B14</f>
-        <v>The entire dataset will be explored instead of random sample</v>
+        <v xml:space="preserve">camera is focused on products on the production line. Camera collects samples of defective and non-defective devices. 
+- historical products data in both defective and non-defective states are collected. </v>
       </c>
       <c r="D3" s="43" t="s">
         <v>77</v>
@@ -10195,7 +10203,8 @@
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="41" t="str">
         <f>'Step 1A - UC 3'!B14</f>
-        <v>car preferences are collected</v>
+        <v>pr-trained models for face recognition 
+- collect user face images with different angles and shapes</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>76</v>
@@ -19596,11 +19605,11 @@
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="47" t="str">
         <f>'Step 1A - UC 1'!C14</f>
-        <v>The devices will be checked using CV to check if it is defective or not</v>
+        <v xml:space="preserve">the list of collected historical images of defective and non-defective devices are used in training AI classifier </v>
       </c>
       <c r="C3" s="47" t="str">
         <f>'Step 1A - UC 1'!D14</f>
-        <v xml:space="preserve">if number of defective devices &gt; threshold </v>
+        <v xml:space="preserve">The trained model classifier are used in real time classification through camera to classify each product as eigher defective or non-defective and also measure its defective urgency. </v>
       </c>
       <c r="E3" s="48"/>
     </row>
@@ -19614,7 +19623,7 @@
         <v>resolution</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>118</v>
@@ -19718,7 +19727,7 @@
         <v>resolution</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>118</v>
@@ -19734,7 +19743,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>119</v>
@@ -19920,11 +19929,11 @@
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="47" t="str">
         <f>'Step 1A - UC 3'!C14</f>
-        <v>we should join preferences to each corresponding customer id</v>
+        <v xml:space="preserve">The collected user images will be used to "re-train" the model on the new user's dataset. </v>
       </c>
       <c r="C3" s="47" t="str">
         <f>'Step 1A - UC 3'!D14</f>
-        <v>Camera can detect the customer face to define the customer id</v>
+        <v xml:space="preserve">The trained model will detect the customer face with approximately 4% False Negatives. </v>
       </c>
       <c r="E3" s="48"/>
     </row>
@@ -19938,7 +19947,7 @@
         <v>resolution</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>118</v>
@@ -19966,7 +19975,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="E7" s="44" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>121</v>
@@ -20064,7 +20073,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>119</v>
@@ -20174,7 +20183,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>119</v>
@@ -20444,7 +20453,7 @@
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="63" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -21560,7 +21569,7 @@
       <c r="B108" s="64"/>
       <c r="C108" s="64"/>
       <c r="D108" s="63" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="E108" s="64"/>
       <c r="F108" s="64"/>
@@ -24624,7 +24633,7 @@
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="63" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -25612,7 +25621,7 @@
       <c r="B96" s="64"/>
       <c r="C96" s="64"/>
       <c r="D96" s="63" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="E96" s="64"/>
       <c r="F96" s="64"/>
@@ -28698,7 +28707,7 @@
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="63" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
@@ -30159,8 +30168,8 @@
   </sheetPr>
   <dimension ref="A1:E1012"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30249,21 +30258,21 @@
       <c r="D9" s="85"/>
       <c r="E9" s="85"/>
     </row>
-    <row r="10" spans="1:5" ht="36">
+    <row r="10" spans="1:5" ht="90">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>250</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -30305,18 +30314,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="66" customHeight="1">
+    <row r="14" spans="1:5" ht="123.75" customHeight="1">
       <c r="B14" s="80" t="s">
-        <v>251</v>
+        <v>322</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="E14" s="80" t="s">
-        <v>254</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
@@ -33293,7 +33302,7 @@
   <dimension ref="A1:AA1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -33398,7 +33407,7 @@
     </row>
     <row r="9" spans="1:27" ht="42" customHeight="1">
       <c r="B9" s="86" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -33431,16 +33440,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15">
@@ -33484,16 +33493,16 @@
     </row>
     <row r="14" spans="1:27" ht="60" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
@@ -36381,7 +36390,7 @@
   <dimension ref="A1:AA1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -36486,7 +36495,7 @@
     </row>
     <row r="9" spans="1:27" ht="34.5" customHeight="1">
       <c r="B9" s="86" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -36514,21 +36523,21 @@
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
     </row>
-    <row r="10" spans="1:27" ht="45">
+    <row r="10" spans="1:27" ht="60">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15">
@@ -36570,18 +36579,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="51" customHeight="1">
+    <row r="14" spans="1:27" ht="84" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
@@ -39468,7 +39477,7 @@
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
@@ -39574,7 +39583,7 @@
     </row>
     <row r="9" spans="1:27" ht="74.25" customHeight="1">
       <c r="B9" s="86" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -39607,16 +39616,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15">
@@ -39660,16 +39669,16 @@
     </row>
     <row r="14" spans="1:27" ht="35.25" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
@@ -42557,7 +42566,7 @@
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -42662,7 +42671,7 @@
     </row>
     <row r="9" spans="1:27" ht="37.5" customHeight="1">
       <c r="B9" s="86" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -42695,16 +42704,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15">
@@ -42748,16 +42757,16 @@
     </row>
     <row r="14" spans="1:27" ht="35.25" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
@@ -45698,19 +45707,20 @@
       </c>
       <c r="C8" s="28" t="str">
         <f>'Step 1A - UC 1'!B14</f>
-        <v>The entire dataset will be explored instead of random sample</v>
+        <v xml:space="preserve">camera is focused on products on the production line. Camera collects samples of defective and non-defective devices. 
+- historical products data in both defective and non-defective states are collected. </v>
       </c>
       <c r="D8" s="28" t="str">
         <f>'Step 1A - UC 1'!C14</f>
-        <v>The devices will be checked using CV to check if it is defective or not</v>
+        <v xml:space="preserve">the list of collected historical images of defective and non-defective devices are used in training AI classifier </v>
       </c>
       <c r="E8" s="28" t="str">
         <f>'Step 1A - UC 1'!D14</f>
-        <v xml:space="preserve">if number of defective devices &gt; threshold </v>
+        <v xml:space="preserve">The trained model classifier are used in real time classification through camera to classify each product as eigher defective or non-defective and also measure its defective urgency. </v>
       </c>
       <c r="F8" s="28" t="str">
         <f>'Step 1A - UC 1'!E14</f>
-        <v>stop machine /line. The accuracy if very hight the machine/line will be stopped only if there are defectives</v>
+        <v xml:space="preserve">high defective productes thershold may stop or pause the production line. Git rid of the defective product. </v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -45739,7 +45749,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -45748,7 +45758,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -45756,7 +45766,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -45767,7 +45777,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -45775,7 +45785,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -45783,7 +45793,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -45791,7 +45801,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -45799,7 +45809,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">
@@ -45929,7 +45939,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -45938,7 +45948,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -45946,7 +45956,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -45957,7 +45967,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -45965,7 +45975,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -45973,7 +45983,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -45981,7 +45991,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -45989,7 +45999,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">

--- a/01_project-steps-delivering-an-ml-ai-strategy.xlsx
+++ b/01_project-steps-delivering-an-ml-ai-strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveSysncOsa\OneDrive - Taibah University\DropBox\1440-1441 Second Semester\Udacity Reviewer\My own projects\ML Project\Github Repo\Delivering-an-ML-AI-Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BDD66B35-4768-4884-AE77-1CB0E1270B05}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3630EBB2-B9A1-48BC-885C-DB18A6645A3A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECTIONS" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="333">
   <si>
     <t>Step 0: Choose Your Business Context</t>
   </si>
@@ -1330,9 +1330,6 @@
     <t>(Car Maintenance Expector)</t>
   </si>
   <si>
-    <t xml:space="preserve">defitiancy is encountered </t>
-  </si>
-  <si>
     <t>check each problem to see the corresponding fix plan</t>
   </si>
   <si>
@@ -1355,30 +1352,6 @@
   </si>
   <si>
     <t>(Supply Chain Costs Prediction)</t>
-  </si>
-  <si>
-    <t>collect factory locations and pick up locations</t>
-  </si>
-  <si>
-    <t>miles are measure and costs are calculated</t>
-  </si>
-  <si>
-    <t>is switching happening</t>
-  </si>
-  <si>
-    <t>predict next supply costs</t>
-  </si>
-  <si>
-    <t>collect data about transportation and costs and switching costs</t>
-  </si>
-  <si>
-    <t>collect miles needed and cost involved</t>
-  </si>
-  <si>
-    <t>train prediction model on the collected data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predict the supply costs. </t>
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/abs/pii/036083529190078K</t>
@@ -1559,6 +1532,36 @@
   </si>
   <si>
     <t xml:space="preserve">If the code detected, the car responds accordingly, opening door lock, signals, etc. </t>
+  </si>
+  <si>
+    <t>demand for product
+- production costs
+- location data
+- switching costs
+- delivery costs</t>
+  </si>
+  <si>
+    <t>data is collected from all factories. Data is organized and ordered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comparison and invistegation is commited to extract the lowest cost needed to achieve some objectives according to some constraints. </t>
+  </si>
+  <si>
+    <t>apply the lowest cost plan</t>
+  </si>
+  <si>
+    <t>deman for production and production costs
+- delivery costs
+-switching costs ( we might need some historical data regarding switching)</t>
+  </si>
+  <si>
+    <t>data is collected from all branches. Data is organized and constraints are defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply an optimization technique to find minimum cost according to specific constraints. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">defects are encountered </t>
   </si>
 </sst>
 </file>
@@ -3431,7 +3434,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3440,7 +3443,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -3448,7 +3451,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -3459,7 +3462,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -3467,7 +3470,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -3475,7 +3478,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -3483,7 +3486,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -3491,7 +3494,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">
@@ -3620,7 +3623,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3629,7 +3632,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -3637,7 +3640,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -3648,7 +3651,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -3656,7 +3659,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -3664,7 +3667,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -3672,7 +3675,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -3680,7 +3683,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">
@@ -3768,19 +3771,21 @@
       </c>
       <c r="C8" s="28" t="str">
         <f>'Step 1A - UC 5'!B14</f>
-        <v>collect data about transportation and costs and switching costs</v>
+        <v>deman for production and production costs
+- delivery costs
+-switching costs ( we might need some historical data regarding switching)</v>
       </c>
       <c r="D8" s="28" t="str">
         <f>'Step 1A - UC 5'!C14</f>
-        <v>collect miles needed and cost involved</v>
+        <v>data is collected from all branches. Data is organized and constraints are defined</v>
       </c>
       <c r="E8" s="28" t="str">
         <f>'Step 1A - UC 5'!D14</f>
-        <v>train prediction model on the collected data</v>
+        <v xml:space="preserve">apply an optimization technique to find minimum cost according to specific constraints. </v>
       </c>
       <c r="F8" s="28" t="str">
         <f>'Step 1A - UC 5'!E14</f>
-        <v xml:space="preserve">predict the supply costs. </v>
+        <v>apply the lowest cost plan</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -3809,7 +3814,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3818,7 +3823,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -3826,7 +3831,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -3837,7 +3842,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -3845,7 +3850,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -3853,7 +3858,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -3861,7 +3866,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -3869,7 +3874,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">
@@ -16475,7 +16480,9 @@
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="41" t="str">
         <f>'Step 1A - UC 5'!B14</f>
-        <v>collect data about transportation and costs and switching costs</v>
+        <v>deman for production and production costs
+- delivery costs
+-switching costs ( we might need some historical data regarding switching)</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>107</v>
@@ -19623,7 +19630,7 @@
         <v>resolution</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>118</v>
@@ -19727,7 +19734,7 @@
         <v>resolution</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>118</v>
@@ -19743,7 +19750,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>119</v>
@@ -19947,7 +19954,7 @@
         <v>resolution</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>118</v>
@@ -19975,7 +19982,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="E7" s="44" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>121</v>
@@ -20073,7 +20080,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>119</v>
@@ -20151,11 +20158,11 @@
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="47" t="str">
         <f>'Step 1A - UC 5'!C14</f>
-        <v>collect miles needed and cost involved</v>
+        <v>data is collected from all branches. Data is organized and constraints are defined</v>
       </c>
       <c r="C3" s="47" t="str">
         <f>'Step 1A - UC 5'!D14</f>
-        <v>train prediction model on the collected data</v>
+        <v xml:space="preserve">apply an optimization technique to find minimum cost according to specific constraints. </v>
       </c>
       <c r="E3" s="48"/>
     </row>
@@ -20183,7 +20190,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>119</v>
@@ -20453,7 +20460,7 @@
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="63" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -21569,7 +21576,7 @@
       <c r="B108" s="64"/>
       <c r="C108" s="64"/>
       <c r="D108" s="63" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E108" s="64"/>
       <c r="F108" s="64"/>
@@ -24633,7 +24640,7 @@
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="63" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -25621,7 +25628,7 @@
       <c r="B96" s="64"/>
       <c r="C96" s="64"/>
       <c r="D96" s="63" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E96" s="64"/>
       <c r="F96" s="64"/>
@@ -28707,7 +28714,7 @@
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="63" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
@@ -30168,7 +30175,7 @@
   </sheetPr>
   <dimension ref="A1:E1012"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -30263,16 +30270,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -30316,16 +30323,16 @@
     </row>
     <row r="14" spans="1:5" ht="123.75" customHeight="1">
       <c r="B14" s="80" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E14" s="80" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
@@ -36528,16 +36535,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15">
@@ -36581,16 +36588,16 @@
     </row>
     <row r="14" spans="1:27" ht="84" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
@@ -39477,8 +39484,8 @@
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -39616,16 +39623,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15">
@@ -39669,16 +39676,16 @@
     </row>
     <row r="14" spans="1:27" ht="35.25" customHeight="1">
       <c r="B14" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>265</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
@@ -42566,7 +42573,7 @@
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -42671,7 +42678,7 @@
     </row>
     <row r="9" spans="1:27" ht="37.5" customHeight="1">
       <c r="B9" s="86" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -42699,21 +42706,21 @@
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
     </row>
-    <row r="10" spans="1:27" ht="36">
+    <row r="10" spans="1:27" ht="90">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15">
@@ -42755,18 +42762,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="35.25" customHeight="1">
+    <row r="14" spans="1:27" ht="107.25" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
@@ -45749,7 +45756,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -45758,7 +45765,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -45766,7 +45773,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -45777,7 +45784,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -45785,7 +45792,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -45793,7 +45800,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -45801,7 +45808,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -45809,7 +45816,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">
@@ -45939,7 +45946,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -45948,7 +45955,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -45956,7 +45963,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -45967,7 +45974,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -45975,7 +45982,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -45983,7 +45990,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -45991,7 +45998,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -45999,7 +46006,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">

--- a/01_project-steps-delivering-an-ml-ai-strategy.xlsx
+++ b/01_project-steps-delivering-an-ml-ai-strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveSysncOsa\OneDrive - Taibah University\DropBox\1440-1441 Second Semester\Udacity Reviewer\My own projects\ML Project\Github Repo\Delivering-an-ML-AI-Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3630EBB2-B9A1-48BC-885C-DB18A6645A3A}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7B12531-74D5-4EC1-B73B-2430131CD889}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECTIONS" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="333">
   <si>
     <t>Step 0: Choose Your Business Context</t>
   </si>
@@ -1297,33 +1297,6 @@
     <t>(Quality Control with Computer Vision )</t>
   </si>
   <si>
-    <t>(Optimal tax strategy predictor)</t>
-  </si>
-  <si>
-    <t>collecting tax codes</t>
-  </si>
-  <si>
-    <t>finding connections with organization tax policies</t>
-  </si>
-  <si>
-    <t>update policies</t>
-  </si>
-  <si>
-    <t>create tax strategy</t>
-  </si>
-  <si>
-    <t>tax codes are collected</t>
-  </si>
-  <si>
-    <t>generic predictors are used in accordance with the organization's ERP</t>
-  </si>
-  <si>
-    <t>tax codes are segmented using NLP</t>
-  </si>
-  <si>
-    <t>predict the best tax strategy</t>
-  </si>
-  <si>
     <t>(Car Detection of Customer ID)</t>
   </si>
   <si>
@@ -1376,30 +1349,6 @@
   </si>
   <si>
     <t> increased profits of the enterprise</t>
-  </si>
-  <si>
-    <t>https://www.jdsupra.com/legalnews/beyond-predictions-using-machine-59906/</t>
-  </si>
-  <si>
-    <t>https://turbotax.intuit.com/tax-tools/calculators/taxcaster/</t>
-  </si>
-  <si>
-    <t>https://www.mckinsey.com/industries/public-sector/our-insights/four-innovations-reshaping-tax-administration</t>
-  </si>
-  <si>
-    <t>tax automation</t>
-  </si>
-  <si>
-    <t>tax calculator with build in machine learning</t>
-  </si>
-  <si>
-    <t>reducing labor</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">automation leads to tax commitment </t>
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/document/7613199</t>
@@ -1562,6 +1511,64 @@
   </si>
   <si>
     <t xml:space="preserve">defects are encountered </t>
+  </si>
+  <si>
+    <t>(Recruiting Screener)</t>
+  </si>
+  <si>
+    <t>https://ideal.com/ai-recruiting/</t>
+  </si>
+  <si>
+    <t>https://vervoe.com/blog/ai-recruitment/</t>
+  </si>
+  <si>
+    <t>https://ideal.com/resume-screening-tools/</t>
+  </si>
+  <si>
+    <t>Resume screening</t>
+  </si>
+  <si>
+    <t>AI for recruiting</t>
+  </si>
+  <si>
+    <t>HR helper</t>
+  </si>
+  <si>
+    <t>Candidate Assessment</t>
+  </si>
+  <si>
+    <t>Resume screening tool</t>
+  </si>
+  <si>
+    <t>collecting resumes
+- data from social media
+- data from linkedin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data is organized to put the candidates with sufficient skills needed, the candidate selection may need other criterias </t>
+  </si>
+  <si>
+    <t>Look for the candidate(s) with skills required and rank each one 
+- sort the candidates according to their rank 
+- select the top n candidates</t>
+  </si>
+  <si>
+    <t>contact the n candidates
+- make interview</t>
+  </si>
+  <si>
+    <t>collecting resumes 
+- label collected resumes, they maybe done be collecting resumes of current employer and rate them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keywords are extracted from resumes.
+- NLA might be used to read resume and extract the candidate skill set. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resumes are ranked using supervised learning classification model, each resume may be belonging to class A, B, C, D etc. </t>
+  </si>
+  <si>
+    <t>select top n candiates and start the hiring process.</t>
   </si>
 </sst>
 </file>
@@ -3434,7 +3441,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3443,7 +3450,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -3451,7 +3458,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -3462,7 +3469,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -3470,7 +3477,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -3478,7 +3485,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -3486,7 +3493,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -3494,7 +3501,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">
@@ -3623,7 +3630,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3632,7 +3639,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -3640,7 +3647,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -3651,7 +3658,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -3659,7 +3666,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -3667,7 +3674,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -3675,7 +3682,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -3683,7 +3690,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">
@@ -3814,7 +3821,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3823,7 +3830,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -3831,7 +3838,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -3842,7 +3849,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -3850,7 +3857,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -3858,7 +3865,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -3866,7 +3873,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -3874,7 +3881,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">
@@ -3910,7 +3917,7 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3959,7 +3966,7 @@
         <v>78</v>
       </c>
       <c r="K4" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -4059,7 +4066,7 @@
         <v>97</v>
       </c>
       <c r="K19" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="15.75" customHeight="1">
@@ -4089,7 +4096,7 @@
         <v>102</v>
       </c>
       <c r="K24" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="4:11" ht="15">
@@ -7043,7 +7050,7 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7067,7 +7074,7 @@
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="B2" s="39" t="str">
         <f>'Step 1A - UC 2'!B9</f>
-        <v>(Optimal tax strategy predictor)</v>
+        <v>(Recruiting Screener)</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -7076,7 +7083,8 @@
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="41" t="str">
         <f>'Step 1A - UC 2'!B14</f>
-        <v>tax codes are collected</v>
+        <v>collecting resumes 
+- label collected resumes, they maybe done be collecting resumes of current employer and rate them</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>79</v>
@@ -7091,7 +7099,7 @@
         <v>78</v>
       </c>
       <c r="K4" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -7132,7 +7140,7 @@
         <v>86</v>
       </c>
       <c r="K10" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
@@ -7173,7 +7181,7 @@
         <v>93</v>
       </c>
       <c r="K16" s="44">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="15">
@@ -7191,7 +7199,7 @@
         <v>97</v>
       </c>
       <c r="K19" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="15.75" customHeight="1">
@@ -7221,7 +7229,7 @@
         <v>102</v>
       </c>
       <c r="K24" s="44">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="4:11" ht="15">
@@ -10175,7 +10183,7 @@
   <dimension ref="A1:K1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10265,7 +10273,7 @@
         <v>86</v>
       </c>
       <c r="K10" s="44">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
@@ -10324,7 +10332,7 @@
         <v>97</v>
       </c>
       <c r="K19" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="15.75" customHeight="1">
@@ -10354,7 +10362,7 @@
         <v>102</v>
       </c>
       <c r="K24" s="44">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="4:11" ht="15.75" customHeight="1">
@@ -13315,7 +13323,7 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13363,7 +13371,7 @@
         <v>78</v>
       </c>
       <c r="K4" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -13404,7 +13412,7 @@
         <v>86</v>
       </c>
       <c r="K10" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
@@ -13463,7 +13471,7 @@
         <v>97</v>
       </c>
       <c r="K19" s="44">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="15.75" customHeight="1">
@@ -16447,7 +16455,7 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -16497,7 +16505,7 @@
         <v>78</v>
       </c>
       <c r="K4" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -16538,7 +16546,7 @@
         <v>86</v>
       </c>
       <c r="K10" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
@@ -16579,7 +16587,7 @@
         <v>93</v>
       </c>
       <c r="K16" s="44">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="15">
@@ -16597,7 +16605,7 @@
         <v>97</v>
       </c>
       <c r="K19" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="15.75" customHeight="1">
@@ -16627,7 +16635,7 @@
         <v>102</v>
       </c>
       <c r="K24" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="4:11" ht="15">
@@ -19630,7 +19638,7 @@
         <v>resolution</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>118</v>
@@ -19706,7 +19714,7 @@
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="B2" s="91" t="str">
         <f>'Step 1A - UC 2'!B9</f>
-        <v>(Optimal tax strategy predictor)</v>
+        <v>(Recruiting Screener)</v>
       </c>
       <c r="C2" s="92"/>
       <c r="E2" s="43" t="s">
@@ -19716,11 +19724,12 @@
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="47" t="str">
         <f>'Step 1A - UC 2'!C14</f>
-        <v>tax codes are segmented using NLP</v>
+        <v xml:space="preserve">keywords are extracted from resumes.
+- NLA might be used to read resume and extract the candidate skill set. </v>
       </c>
       <c r="C3" s="47" t="str">
         <f>'Step 1A - UC 2'!D14</f>
-        <v>generic predictors are used in accordance with the organization's ERP</v>
+        <v xml:space="preserve">resumes are ranked using supervised learning classification model, each resume may be belonging to class A, B, C, D etc. </v>
       </c>
       <c r="E3" s="48"/>
     </row>
@@ -19734,7 +19743,7 @@
         <v>resolution</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>118</v>
@@ -19750,7 +19759,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>119</v>
@@ -19954,7 +19963,7 @@
         <v>resolution</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>118</v>
@@ -19981,9 +19990,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="E7" s="44" t="s">
-        <v>307</v>
-      </c>
+      <c r="E7" s="44"/>
       <c r="F7" s="43" t="s">
         <v>121</v>
       </c>
@@ -20017,7 +20024,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -20080,7 +20087,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>119</v>
@@ -20127,7 +20134,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -20190,20 +20197,24 @@
         <v>0</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="E6" s="44"/>
+      <c r="E6" s="50" t="s">
+        <v>290</v>
+      </c>
       <c r="F6" s="43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="E7" s="44"/>
+      <c r="E7" s="50" t="s">
+        <v>290</v>
+      </c>
       <c r="F7" s="43" t="s">
         <v>121</v>
       </c>
@@ -20236,7 +20247,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -20460,7 +20471,7 @@
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="63" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -21576,7 +21587,7 @@
       <c r="B108" s="64"/>
       <c r="C108" s="64"/>
       <c r="D108" s="63" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E108" s="64"/>
       <c r="F108" s="64"/>
@@ -24640,7 +24651,7 @@
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="63" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -25628,7 +25639,7 @@
       <c r="B96" s="64"/>
       <c r="C96" s="64"/>
       <c r="D96" s="63" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E96" s="64"/>
       <c r="F96" s="64"/>
@@ -28714,7 +28725,7 @@
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="63" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
@@ -30175,8 +30186,8 @@
   </sheetPr>
   <dimension ref="A1:E1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30270,16 +30281,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -30323,16 +30334,16 @@
     </row>
     <row r="14" spans="1:5" ht="123.75" customHeight="1">
       <c r="B14" s="80" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="E14" s="80" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
@@ -33309,7 +33320,7 @@
   <dimension ref="A1:AA1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -33414,7 +33425,7 @@
     </row>
     <row r="9" spans="1:27" ht="42" customHeight="1">
       <c r="B9" s="86" t="s">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -33442,21 +33453,21 @@
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
     </row>
-    <row r="10" spans="1:27" ht="36">
+    <row r="10" spans="1:27" ht="90">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15">
@@ -33498,18 +33509,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="60" customHeight="1">
+    <row r="14" spans="1:27" ht="99" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
@@ -36502,7 +36513,7 @@
     </row>
     <row r="9" spans="1:27" ht="34.5" customHeight="1">
       <c r="B9" s="86" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -36535,16 +36546,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15">
@@ -36588,16 +36599,16 @@
     </row>
     <row r="14" spans="1:27" ht="84" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
@@ -39590,7 +39601,7 @@
     </row>
     <row r="9" spans="1:27" ht="74.25" customHeight="1">
       <c r="B9" s="86" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -39623,16 +39634,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15">
@@ -39676,16 +39687,16 @@
     </row>
     <row r="14" spans="1:27" ht="35.25" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
@@ -42678,7 +42689,7 @@
     </row>
     <row r="9" spans="1:27" ht="37.5" customHeight="1">
       <c r="B9" s="86" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -42711,16 +42722,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15">
@@ -42764,16 +42775,16 @@
     </row>
     <row r="14" spans="1:27" ht="107.25" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
@@ -45756,7 +45767,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -45765,7 +45776,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -45773,7 +45784,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -45784,7 +45795,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -45792,7 +45803,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -45800,7 +45811,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -45808,7 +45819,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -45816,7 +45827,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">
@@ -45852,7 +45863,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -45893,7 +45904,7 @@
       <c r="B7" s="26"/>
       <c r="C7" s="90" t="str">
         <f>'Step 1A - UC 2'!B9</f>
-        <v>(Optimal tax strategy predictor)</v>
+        <v>(Recruiting Screener)</v>
       </c>
       <c r="D7" s="88"/>
       <c r="E7" s="88"/>
@@ -45905,19 +45916,21 @@
       </c>
       <c r="C8" s="28" t="str">
         <f>'Step 1A - UC 2'!B14</f>
-        <v>tax codes are collected</v>
+        <v>collecting resumes 
+- label collected resumes, they maybe done be collecting resumes of current employer and rate them</v>
       </c>
       <c r="D8" s="28" t="str">
         <f>'Step 1A - UC 2'!C14</f>
-        <v>tax codes are segmented using NLP</v>
+        <v xml:space="preserve">keywords are extracted from resumes.
+- NLA might be used to read resume and extract the candidate skill set. </v>
       </c>
       <c r="E8" s="28" t="str">
         <f>'Step 1A - UC 2'!D14</f>
-        <v>generic predictors are used in accordance with the organization's ERP</v>
+        <v xml:space="preserve">resumes are ranked using supervised learning classification model, each resume may be belonging to class A, B, C, D etc. </v>
       </c>
       <c r="F8" s="28" t="str">
         <f>'Step 1A - UC 2'!E14</f>
-        <v>predict the best tax strategy</v>
+        <v>select top n candiates and start the hiring process.</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -45946,7 +45959,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -45955,7 +45968,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -45963,7 +45976,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15">
@@ -45974,7 +45987,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15">
@@ -45982,7 +45995,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15">
@@ -45990,7 +46003,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15">
@@ -45998,7 +46011,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15">
@@ -46006,7 +46019,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15">
@@ -46024,9 +46037,9 @@
     <mergeCell ref="C7:F7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" xr:uid="{7EC0DE22-DE50-40B7-96D9-B4EDEC7B66D6}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{D0330F90-332C-47EB-8D34-6D433EFD1CB7}"/>
-    <hyperlink ref="D15" r:id="rId3" xr:uid="{D2D7B9A9-0918-4079-848A-9860258DE305}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{7909738B-2A28-46ED-B389-66EA32B99938}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{344FD382-4577-44B4-995A-772B6C5C3D1F}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{51A63258-1B45-462C-B114-F2EB63294504}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01_project-steps-delivering-an-ml-ai-strategy.xlsx
+++ b/01_project-steps-delivering-an-ml-ai-strategy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveSysncOsa\OneDrive - Taibah University\DropBox\1440-1441 Second Semester\Udacity Reviewer\My own projects\ML Project\Github Repo\Delivering-an-ML-AI-Strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7B12531-74D5-4EC1-B73B-2430131CD889}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="13_ncr:1_{F6D73E04-F98F-4F45-82A3-AB2F1AC194F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA5723D0-D2C3-4E2F-9DC4-B2E65FCF7B69}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECTIONS" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="335">
   <si>
     <t>Step 0: Choose Your Business Context</t>
   </si>
@@ -1570,12 +1570,21 @@
   <si>
     <t>select top n candiates and start the hiring process.</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Reviewer, 
+I've added this Use case instead of tax use 
+case, just because I didn't fully understand 
+the business behind tax. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1744,6 +1753,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2023,7 +2039,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2229,6 +2245,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -20247,7 +20266,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -20291,8 +20310,8 @@
   </sheetPr>
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -20507,7 +20526,7 @@
         <v>134</v>
       </c>
       <c r="D13" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="66" t="s">
         <v>135</v>
@@ -20518,7 +20537,7 @@
         <v>141</v>
       </c>
       <c r="D14" s="56">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="30">
@@ -20526,7 +20545,7 @@
         <v>137</v>
       </c>
       <c r="D15" s="56">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="45">
@@ -20534,7 +20553,7 @@
         <v>138</v>
       </c>
       <c r="D16" s="56">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="30">
@@ -21587,7 +21606,7 @@
       <c r="B108" s="64"/>
       <c r="C108" s="64"/>
       <c r="D108" s="63" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="E108" s="64"/>
       <c r="F108" s="64"/>
@@ -24469,8 +24488,8 @@
   </sheetPr>
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -24687,7 +24706,7 @@
         <v>134</v>
       </c>
       <c r="D13" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="66" t="s">
         <v>135</v>
@@ -24698,7 +24717,7 @@
         <v>141</v>
       </c>
       <c r="D14" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="30">
@@ -24714,7 +24733,7 @@
         <v>138</v>
       </c>
       <c r="D16" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="30">
@@ -28658,7 +28677,7 @@
   </sheetPr>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -29848,7 +29867,7 @@
       </c>
       <c r="C9" s="38">
         <f>COUNTIF('Step 4A - one UC'!D6:D108, "y")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38">
@@ -29867,12 +29886,12 @@
       </c>
       <c r="C10" s="38">
         <f>SUM('Step 4A - one UC'!D:D)</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="38">
         <f>SUM('Step 4A - a second UC'!D:D)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="38">
@@ -29886,7 +29905,7 @@
       </c>
       <c r="C11" s="38">
         <f>C9*5*5</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="38">
@@ -29905,12 +29924,12 @@
       </c>
       <c r="C12" s="71">
         <f>(C10/C11)*100</f>
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="71">
         <f>(E10/E11)*100</f>
-        <v>112.00000000000001</v>
+        <v>120</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="71">
@@ -33319,8 +33338,8 @@
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -33423,7 +33442,10 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="42" customHeight="1">
+    <row r="9" spans="1:27" ht="91.5" customHeight="1">
+      <c r="A9" s="93" t="s">
+        <v>334</v>
+      </c>
       <c r="B9" s="86" t="s">
         <v>316</v>
       </c>
@@ -36396,6 +36418,7 @@
     <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
